--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/15_225-80R17.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/15_225-80R17.xlsx
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.340934883460817</v>
+        <v>0.3135795569284398</v>
       </c>
       <c r="E2">
-        <v>0.1203657463606244</v>
+        <v>0.1138110322681014</v>
       </c>
       <c r="F2">
-        <v>0.03806459750729453</v>
+        <v>0.0392712335436213</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.1118700547534797</v>
+        <v>0.1061165206939023</v>
       </c>
       <c r="I2">
-        <v>0.02216075153056879</v>
+        <v>0.02486718822266335</v>
       </c>
       <c r="J2">
-        <v>0.02573018878641309</v>
+        <v>0.02810001228790762</v>
       </c>
       <c r="K2">
-        <v>0.01433028753909259</v>
+        <v>0.01777517045649448</v>
       </c>
       <c r="L2">
-        <v>0.1710422079267332</v>
+        <v>0.1597084868946266</v>
       </c>
       <c r="M2">
-        <v>0.01949902945660788</v>
+        <v>0.02245647791766954</v>
       </c>
       <c r="N2">
-        <v>0.025186124704646</v>
+        <v>0.02760725577462479</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.004756875265093706</v>
       </c>
       <c r="P2">
-        <v>0.01536112324119272</v>
+        <v>0.01870879394563297</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -986,22 +986,22 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.003139770331039009</v>
+        <v>0.007639966854444206</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0008669847876477179</v>
+        <v>0.005581514702698326</v>
       </c>
       <c r="V2">
-        <v>0.01259842760398176</v>
+        <v>0.01620663231600983</v>
       </c>
       <c r="W2">
-        <v>0.04970161874326635</v>
+        <v>0.04981083393519888</v>
       </c>
       <c r="X2">
-        <v>0.01990736842130438</v>
+        <v>0.0228263087725715</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -1010,10 +1010,10 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>0.003214174027572987</v>
       </c>
       <c r="AB2">
-        <v>0.006988036370732527</v>
+        <v>0.01112532495738156</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.002252798474558278</v>
+        <v>0.006836640235344683</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -1177,43 +1177,43 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2325903610789549</v>
+        <v>0.2293748482350864</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.0007765572709904567</v>
       </c>
       <c r="F3">
-        <v>0.2225599552995425</v>
+        <v>0.2195356967533561</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.1476259048775004</v>
+        <v>0.1460304478674752</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04225385879229457</v>
+        <v>0.04266757839112812</v>
       </c>
       <c r="K3">
-        <v>0.01362255697067111</v>
+        <v>0.01458220259104799</v>
       </c>
       <c r="L3">
-        <v>0.1488456563522948</v>
+        <v>0.1472269417875118</v>
       </c>
       <c r="M3">
-        <v>0.05657973140706484</v>
+        <v>0.05672029309325987</v>
       </c>
       <c r="N3">
-        <v>0.01056115466922405</v>
+        <v>0.01157917343620758</v>
       </c>
       <c r="O3">
-        <v>0.006759697541258698</v>
+        <v>0.007850200415980927</v>
       </c>
       <c r="P3">
-        <v>0.0003484008941151492</v>
+        <v>0.001561150870744069</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -1225,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.01358492405213522</v>
+        <v>0.01454528723644348</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -1234,10 +1234,10 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0.04763417561597807</v>
+        <v>0.04794530627294318</v>
       </c>
       <c r="X3">
-        <v>0.0203242462589152</v>
+        <v>0.02115610772914955</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.03412014959078531</v>
+        <v>0.0346889583131395</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -1267,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.002589226599265112</v>
+        <v>0.00375924973553567</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -1542,100 +1542,100 @@
         <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.3437903632129047</v>
+        <v>0.2878469167324654</v>
       </c>
       <c r="AV4">
-        <v>0.123019847759346</v>
+        <v>0.1094230468748304</v>
       </c>
       <c r="AW4">
-        <v>0.1142295758848111</v>
+        <v>0.1023188630496801</v>
       </c>
       <c r="AX4">
-        <v>0</v>
+        <v>0.002279898802400759</v>
       </c>
       <c r="AY4">
-        <v>0.08708987302996657</v>
+        <v>0.08038490687713902</v>
       </c>
       <c r="AZ4">
-        <v>0</v>
+        <v>0.0005238520921307552</v>
       </c>
       <c r="BA4">
-        <v>0.0711183154941583</v>
+        <v>0.06747690103524367</v>
       </c>
       <c r="BB4">
-        <v>0</v>
+        <v>0.005868035124370585</v>
       </c>
       <c r="BC4">
-        <v>0.0322346751389273</v>
+        <v>0.0360516467521723</v>
       </c>
       <c r="BD4">
-        <v>0.0276074158311738</v>
+        <v>0.03231195573941197</v>
       </c>
       <c r="BE4">
-        <v>0</v>
+        <v>0.0003210902139847983</v>
       </c>
       <c r="BF4">
-        <v>0</v>
+        <v>0.0006412642026544852</v>
       </c>
       <c r="BG4">
-        <v>0</v>
+        <v>0.007133281220732739</v>
       </c>
       <c r="BH4">
-        <v>0.04003373497606987</v>
+        <v>0.04235474585277189</v>
       </c>
       <c r="BI4">
-        <v>0</v>
+        <v>0.004286619546557372</v>
       </c>
       <c r="BJ4">
-        <v>0</v>
+        <v>0.001414850500362672</v>
       </c>
       <c r="BK4">
-        <v>0.02719853664819072</v>
+        <v>0.03198150488195851</v>
       </c>
       <c r="BL4">
-        <v>0</v>
+        <v>0.002293968287888248</v>
       </c>
       <c r="BM4">
-        <v>0</v>
+        <v>0.004281527245290251</v>
       </c>
       <c r="BN4">
-        <v>0.04517350372481868</v>
+        <v>0.04650864035467611</v>
       </c>
       <c r="BO4">
-        <v>0</v>
+        <v>5.984827477489519E-05</v>
       </c>
       <c r="BP4">
-        <v>0</v>
+        <v>0.002016952731489548</v>
       </c>
       <c r="BQ4">
-        <v>0</v>
+        <v>0.0006785282788865063</v>
       </c>
       <c r="BR4">
-        <v>0.0284846680486614</v>
+        <v>0.03302093961420051</v>
       </c>
       <c r="BS4">
-        <v>0.03801722472984587</v>
+        <v>0.0407250284016001</v>
       </c>
       <c r="BT4">
-        <v>0</v>
+        <v>0.00157321778412607</v>
       </c>
       <c r="BU4">
-        <v>0.0005998401033483893</v>
+        <v>0.01048478299883182</v>
       </c>
       <c r="BV4">
-        <v>0</v>
+        <v>0.0006896431433649063</v>
       </c>
       <c r="BW4">
-        <v>0</v>
+        <v>0.001378663735409999</v>
       </c>
       <c r="BX4">
-        <v>0.008849542634622471</v>
+        <v>0.0171520856854258</v>
       </c>
       <c r="BY4">
-        <v>0.01255288278315481</v>
+        <v>0.02014507720579613</v>
       </c>
       <c r="BZ4">
-        <v>0</v>
+        <v>0.006371716759371527</v>
       </c>
     </row>
     <row r="5" spans="1:78">
@@ -1778,100 +1778,100 @@
         <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.3186699027614827</v>
+        <v>0.2723463335971277</v>
       </c>
       <c r="AV5">
-        <v>0.1497527167447138</v>
+        <v>0.1332845519571716</v>
       </c>
       <c r="AW5">
-        <v>0.1376000561933534</v>
+        <v>0.1232798232034614</v>
       </c>
       <c r="AX5">
-        <v>0</v>
+        <v>0.004513420100034255</v>
       </c>
       <c r="AY5">
-        <v>0.0936215354678628</v>
+        <v>0.08707432161897891</v>
       </c>
       <c r="AZ5">
-        <v>0</v>
+        <v>0.0001987717677322902</v>
       </c>
       <c r="BA5">
-        <v>0.09439062232779903</v>
+        <v>0.08770747560112016</v>
       </c>
       <c r="BB5">
-        <v>0.006620189139256993</v>
+        <v>0.01545009846663662</v>
       </c>
       <c r="BC5">
-        <v>0.04478622082865569</v>
+        <v>0.04687044408101311</v>
       </c>
       <c r="BD5">
-        <v>0.05076912287921529</v>
+        <v>0.05179589327980316</v>
       </c>
       <c r="BE5">
-        <v>0</v>
+        <v>0.001891838691685242</v>
       </c>
       <c r="BF5">
-        <v>0</v>
+        <v>5.562817256490724E-07</v>
       </c>
       <c r="BG5">
-        <v>0</v>
+        <v>0.00183714618135577</v>
       </c>
       <c r="BH5">
-        <v>0.01797642923219721</v>
+        <v>0.02479917073864684</v>
       </c>
       <c r="BI5">
-        <v>0.001200597863953094</v>
+        <v>0.01098839722547751</v>
       </c>
       <c r="BJ5">
-        <v>0</v>
+        <v>0.0001481999855545442</v>
       </c>
       <c r="BK5">
-        <v>0.008379275276090486</v>
+        <v>0.01689827350444437</v>
       </c>
       <c r="BL5">
-        <v>0</v>
+        <v>0.0008183331236180897</v>
       </c>
       <c r="BM5">
-        <v>0</v>
+        <v>0.001541364809233576</v>
       </c>
       <c r="BN5">
-        <v>0.03527423873571891</v>
+        <v>0.03903966494028179</v>
       </c>
       <c r="BO5">
-        <v>0</v>
+        <v>1.430017529281221E-05</v>
       </c>
       <c r="BP5">
-        <v>0</v>
+        <v>0.0005666116110328764</v>
       </c>
       <c r="BQ5">
-        <v>0</v>
+        <v>0.0001498436386670544</v>
       </c>
       <c r="BR5">
-        <v>0.01832921938982411</v>
+        <v>0.02508960671512449</v>
       </c>
       <c r="BS5">
-        <v>0.02231831864696256</v>
+        <v>0.02837364940442922</v>
       </c>
       <c r="BT5">
-        <v>0</v>
+        <v>5.562817256490724E-07</v>
       </c>
       <c r="BU5">
-        <v>0</v>
+        <v>0.004119064590110762</v>
       </c>
       <c r="BV5">
-        <v>0</v>
+        <v>0.0004445053936122747</v>
       </c>
       <c r="BW5">
-        <v>0</v>
+        <v>3.004614366315953E-05</v>
       </c>
       <c r="BX5">
-        <v>0</v>
+        <v>0.009520219939864448</v>
       </c>
       <c r="BY5">
-        <v>0.0003115545129141699</v>
+        <v>0.01025648855907126</v>
       </c>
       <c r="BZ5">
-        <v>0</v>
+        <v>0.0009510283923031766</v>
       </c>
     </row>
     <row r="6" spans="1:78">
@@ -1885,34 +1885,34 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.3186997858328221</v>
+        <v>0.2936945486033523</v>
       </c>
       <c r="E6">
-        <v>0.1823366861060387</v>
+        <v>0.1702157204147129</v>
       </c>
       <c r="F6">
-        <v>0.05560602248185032</v>
+        <v>0.0554592073166916</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.00122401734277372</v>
       </c>
       <c r="H6">
-        <v>0.06055443229202787</v>
+        <v>0.05994006647860663</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.03248636695495281</v>
+        <v>0.03452401313068273</v>
       </c>
       <c r="K6">
-        <v>0.08136531813716995</v>
+        <v>0.07878463515498856</v>
       </c>
       <c r="L6">
-        <v>0.09322761542132398</v>
+        <v>0.08952612292702784</v>
       </c>
       <c r="M6">
-        <v>0.0203659940620805</v>
+        <v>0.02354883403149957</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1921,10 +1921,10 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.006851033128564032</v>
+        <v>0.01131083458421891</v>
       </c>
       <c r="Q6">
-        <v>0.009817084546990897</v>
+        <v>0.01399663854605614</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1933,16 +1933,16 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.02034898554018544</v>
+        <v>0.02353343256030223</v>
       </c>
       <c r="U6">
-        <v>0.000730354822689919</v>
+        <v>0.005768468750329618</v>
       </c>
       <c r="V6">
-        <v>0.01728231257863405</v>
+        <v>0.02075651428483877</v>
       </c>
       <c r="W6">
-        <v>0.05934141218212061</v>
+        <v>0.05884165860990384</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -1954,10 +1954,10 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.01215706457675749</v>
+        <v>0.01611552549303309</v>
       </c>
       <c r="AB6">
-        <v>0.01677374039399542</v>
+        <v>0.02029599455820939</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -1972,13 +1972,13 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.0003765032763935977</v>
+        <v>0.005448050877921677</v>
       </c>
       <c r="AH6">
-        <v>0.01167928766540216</v>
+        <v>0.01568289134737384</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>0.001332824987476724</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -2121,70 +2121,70 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03762056076857306</v>
+        <v>0.03682472244863324</v>
       </c>
       <c r="E7">
-        <v>0.1744815146301164</v>
+        <v>0.1923762937731141</v>
       </c>
       <c r="F7">
-        <v>0.17814560956484</v>
+        <v>0.1965407812218493</v>
       </c>
       <c r="G7">
-        <v>0.04551453216886041</v>
+        <v>0.04579674566386997</v>
       </c>
       <c r="H7">
-        <v>0.05595724951668703</v>
+        <v>0.05766558806573695</v>
       </c>
       <c r="I7">
-        <v>0.08822211849017901</v>
+        <v>0.094336756326646</v>
       </c>
       <c r="J7">
-        <v>0.02384174236222399</v>
+        <v>0.02116417944035796</v>
       </c>
       <c r="K7">
-        <v>0.004517729538303586</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.06473625900414963</v>
+        <v>0.06764351589626225</v>
       </c>
       <c r="M7">
-        <v>0.09877165899511856</v>
+        <v>0.1063270103471955</v>
       </c>
       <c r="N7">
-        <v>0.009188442561071269</v>
+        <v>0.004509730199386523</v>
       </c>
       <c r="O7">
-        <v>0.04297680208865846</v>
+        <v>0.0429124467427024</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.01246230245299415</v>
+        <v>0.008230689582732561</v>
       </c>
       <c r="R7">
-        <v>0.005220588225104744</v>
+        <v>0</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>0.03432598038973135</v>
+        <v>0.03308021285459604</v>
       </c>
       <c r="U7">
-        <v>0.001389123149018495</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>0.002097285739857328</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>0.03215623139429943</v>
+        <v>0.03061414889627678</v>
       </c>
       <c r="X7">
-        <v>0.02376294620537549</v>
+        <v>0.0210746223704539</v>
       </c>
       <c r="Y7">
-        <v>0.006112685044417705</v>
+        <v>0.001013927333562848</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -2193,16 +2193,16 @@
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.008407221334535439</v>
+        <v>0.00362182034700727</v>
       </c>
       <c r="AC7">
-        <v>0.02470045153014004</v>
+        <v>0.02214015948880341</v>
       </c>
       <c r="AD7">
-        <v>0.0106871679898942</v>
+        <v>0.006213131270763024</v>
       </c>
       <c r="AE7">
-        <v>0.01218324103351435</v>
+        <v>0.007913517730050331</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -2214,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>0.002520555822335999</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
         <v>0</v>
@@ -2357,46 +2357,46 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1244469036359072</v>
+        <v>0.116403129651383</v>
       </c>
       <c r="E8">
-        <v>0.02038267436907288</v>
+        <v>0.02354680565851471</v>
       </c>
       <c r="F8">
-        <v>0.3670399382893736</v>
+        <v>0.3328684567181411</v>
       </c>
       <c r="G8">
-        <v>0.02723178186130419</v>
+        <v>0.02965825191474813</v>
       </c>
       <c r="H8">
-        <v>0.1049631895747202</v>
+        <v>0.0990178467525783</v>
       </c>
       <c r="I8">
-        <v>0.02979940259231571</v>
+        <v>0.0319493352598068</v>
       </c>
       <c r="J8">
-        <v>0.003137100510311058</v>
+        <v>0.008158611223652475</v>
       </c>
       <c r="K8">
-        <v>0.0348397073408556</v>
+        <v>0.03644679009179463</v>
       </c>
       <c r="L8">
-        <v>0.1049066556378499</v>
+        <v>0.09896740162272338</v>
       </c>
       <c r="M8">
-        <v>0.01433776172419783</v>
+        <v>0.01815294101342292</v>
       </c>
       <c r="N8">
-        <v>0.06219268079088685</v>
+        <v>0.0608537989433357</v>
       </c>
       <c r="O8">
-        <v>0.02726854996067006</v>
+        <v>0.02969106002346496</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.001323815310224144</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -2405,19 +2405,19 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>0.004268052968348169</v>
       </c>
       <c r="U8">
-        <v>0.002995935609829427</v>
+        <v>0.008032650037682103</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>0.000695143782018446</v>
       </c>
       <c r="W8">
-        <v>0.005571275739979304</v>
+        <v>0.01033062138866242</v>
       </c>
       <c r="X8">
-        <v>0.01114968831925074</v>
+        <v>0.01530822886700662</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -2426,19 +2426,19 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>0.0003646787183798235</v>
       </c>
       <c r="AB8">
-        <v>0.02789941196798612</v>
+        <v>0.03025397705421456</v>
       </c>
       <c r="AC8">
-        <v>0.02943023663194989</v>
+        <v>0.03161992913952536</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>0.004581235917538146</v>
       </c>
       <c r="AE8">
-        <v>0.002407105443539303</v>
+        <v>0.007507237942834291</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -2593,37 +2593,37 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.08018638720785579</v>
+        <v>0.07797544668933859</v>
       </c>
       <c r="E9">
-        <v>0.01026669841163359</v>
+        <v>0.01280248498085203</v>
       </c>
       <c r="F9">
-        <v>0.4129691411814521</v>
+        <v>0.3881661534182527</v>
       </c>
       <c r="G9">
-        <v>0.01279191818097718</v>
+        <v>0.01515627193509024</v>
       </c>
       <c r="H9">
-        <v>0.08091185426962239</v>
+        <v>0.07865166304343424</v>
       </c>
       <c r="I9">
-        <v>0.01072652990489818</v>
+        <v>0.01323109930707181</v>
       </c>
       <c r="J9">
-        <v>0.00635167828520201</v>
+        <v>0.009153248818896094</v>
       </c>
       <c r="K9">
-        <v>0.07560521487638508</v>
+        <v>0.07370528224668664</v>
       </c>
       <c r="L9">
-        <v>0.02645763030596749</v>
+        <v>0.02789424243202579</v>
       </c>
       <c r="M9">
-        <v>0.02226415216002067</v>
+        <v>0.02398545228526625</v>
       </c>
       <c r="N9">
-        <v>0.1003505405062697</v>
+        <v>0.09677069039575206</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -2632,10 +2632,10 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.003559573285463949</v>
+        <v>0.006550695012280261</v>
       </c>
       <c r="R9">
-        <v>0.01281200093758656</v>
+        <v>0.01517499130798846</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -2644,16 +2644,16 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0.007177958945154723</v>
+        <v>0.00992343470986177</v>
       </c>
       <c r="V9">
         <v>0</v>
       </c>
       <c r="W9">
-        <v>0.006195208349644775</v>
+        <v>0.009007401357413229</v>
       </c>
       <c r="X9">
-        <v>0.0239739541279112</v>
+        <v>0.02557917874630915</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -2662,19 +2662,19 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>0.0002586795628303122</v>
+        <v>0.003473893271700873</v>
       </c>
       <c r="AB9">
-        <v>0.06042886852260592</v>
+        <v>0.05955923187349019</v>
       </c>
       <c r="AC9">
-        <v>0.03506462675722201</v>
+        <v>0.03591692473797162</v>
       </c>
       <c r="AD9">
-        <v>0.001703822308488817</v>
+        <v>0.004820927768673458</v>
       </c>
       <c r="AE9">
-        <v>0.009943561912807536</v>
+        <v>0.01250128566164478</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -2832,37 +2832,37 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3741538841149354</v>
+        <v>0.3425005477642192</v>
       </c>
       <c r="F10">
-        <v>0.1478304031593926</v>
+        <v>0.1385062917842426</v>
       </c>
       <c r="G10">
-        <v>0.06360471391670559</v>
+        <v>0.06259036499254721</v>
       </c>
       <c r="H10">
-        <v>0.02847917811782952</v>
+        <v>0.03093033788914083</v>
       </c>
       <c r="I10">
-        <v>0.04395562502675639</v>
+        <v>0.04487986826517948</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.02653277009274203</v>
+        <v>0.02917596377278843</v>
       </c>
       <c r="L10">
-        <v>0.07841829212259578</v>
+        <v>0.07594242573212799</v>
       </c>
       <c r="M10">
-        <v>0.03842402990136101</v>
+        <v>0.03989402398944056</v>
       </c>
       <c r="N10">
-        <v>0.05785732394540315</v>
+        <v>0.05741001633374884</v>
       </c>
       <c r="O10">
-        <v>0.06206459130292254</v>
+        <v>0.06120219189892848</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="R10">
-        <v>0.0008312058225876945</v>
+        <v>0.006010132906827285</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -2880,19 +2880,19 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>0.00502996102422587</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>0.001436375011976732</v>
       </c>
       <c r="W10">
-        <v>0.002681634970317712</v>
+        <v>0.007677997485620131</v>
       </c>
       <c r="X10">
-        <v>0.02205963477226262</v>
+        <v>0.02514415095448792</v>
       </c>
       <c r="Y10">
-        <v>0.004108835729804923</v>
+        <v>0.008964389670100718</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -2901,16 +2901,16 @@
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.00374830710153817</v>
+        <v>0.008639431035794431</v>
       </c>
       <c r="AC10">
-        <v>0.03372755616725674</v>
+        <v>0.03566090747376496</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>0.002758443405507246</v>
       </c>
       <c r="AE10">
-        <v>0.01152201373558779</v>
+        <v>0.01564617860933083</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -3065,19 +3065,19 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2730809658405498</v>
+        <v>0.2481020034616606</v>
       </c>
       <c r="E11">
-        <v>0.07859186858102787</v>
+        <v>0.07571778478473905</v>
       </c>
       <c r="F11">
-        <v>0.06464979088701667</v>
+        <v>0.06336030971862763</v>
       </c>
       <c r="G11">
-        <v>0.08558327789754097</v>
+        <v>0.08191457755852345</v>
       </c>
       <c r="H11">
-        <v>0.1388835588777245</v>
+        <v>0.1291569547482787</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -3086,16 +3086,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.03933284561005019</v>
+        <v>0.04092079052525764</v>
       </c>
       <c r="L11">
-        <v>0.1077030825178368</v>
+        <v>0.1015203307369021</v>
       </c>
       <c r="M11">
-        <v>0.01316470176768897</v>
+        <v>0.01772681670331434</v>
       </c>
       <c r="N11">
-        <v>0.08305076535671196</v>
+        <v>0.07966990059826294</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -3104,46 +3104,46 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>0.005538779683652231</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.006924443909624109</v>
+        <v>0.01219580241838705</v>
       </c>
       <c r="T11">
-        <v>0.007969104091667132</v>
+        <v>0.01312173056449838</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>0.0002232127439262404</v>
       </c>
       <c r="V11">
-        <v>0.001051292215261613</v>
+        <v>0.006990170430426604</v>
       </c>
       <c r="W11">
-        <v>0.007183063833536728</v>
+        <v>0.012425028601994</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>0.002233820476775104</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>0.002668131085576231</v>
       </c>
       <c r="AA11">
-        <v>0.007840550414147718</v>
+        <v>0.01300778780076773</v>
       </c>
       <c r="AB11">
-        <v>0.037077848880657</v>
+        <v>0.03892208800263371</v>
       </c>
       <c r="AC11">
-        <v>0.01767325647303462</v>
+        <v>0.021722946518273</v>
       </c>
       <c r="AD11">
-        <v>0.0302395828459232</v>
+        <v>0.03286103283752314</v>
       </c>
       <c r="AE11">
         <v>0</v>
@@ -3550,229 +3550,229 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.340934883460817</v>
+        <v>0.3135795569284398</v>
       </c>
       <c r="E2">
-        <v>0.4613006298214415</v>
+        <v>0.4273905891965412</v>
       </c>
       <c r="F2">
-        <v>0.499365227328736</v>
+        <v>0.4666618227401624</v>
       </c>
       <c r="G2">
-        <v>0.499365227328736</v>
+        <v>0.4666618227401624</v>
       </c>
       <c r="H2">
-        <v>0.6112352820822157</v>
+        <v>0.5727783434340648</v>
       </c>
       <c r="I2">
-        <v>0.6333960336127844</v>
+        <v>0.5976455316567281</v>
       </c>
       <c r="J2">
-        <v>0.6591262223991975</v>
+        <v>0.6257455439446357</v>
       </c>
       <c r="K2">
-        <v>0.6734565099382901</v>
+        <v>0.6435207144011301</v>
       </c>
       <c r="L2">
-        <v>0.8444987178650233</v>
+        <v>0.8032292012957567</v>
       </c>
       <c r="M2">
-        <v>0.8639977473216311</v>
+        <v>0.8256856792134263</v>
       </c>
       <c r="N2">
-        <v>0.8891838720262771</v>
+        <v>0.853292934988051</v>
       </c>
       <c r="O2">
-        <v>0.8891838720262771</v>
+        <v>0.8580498102531448</v>
       </c>
       <c r="P2">
-        <v>0.9045449952674699</v>
+        <v>0.8767586041987777</v>
       </c>
       <c r="Q2">
-        <v>0.9045449952674699</v>
+        <v>0.8767586041987777</v>
       </c>
       <c r="R2">
-        <v>0.9045449952674699</v>
+        <v>0.8767586041987777</v>
       </c>
       <c r="S2">
-        <v>0.9076847655985089</v>
+        <v>0.8843985710532219</v>
       </c>
       <c r="T2">
-        <v>0.9076847655985089</v>
+        <v>0.8843985710532219</v>
       </c>
       <c r="U2">
-        <v>0.9085517503861565</v>
+        <v>0.8899800857559202</v>
       </c>
       <c r="V2">
-        <v>0.9211501779901383</v>
+        <v>0.9061867180719301</v>
       </c>
       <c r="W2">
-        <v>0.9708517967334047</v>
+        <v>0.955997552007129</v>
       </c>
       <c r="X2">
-        <v>0.9907591651547091</v>
+        <v>0.9788238607797005</v>
       </c>
       <c r="Y2">
-        <v>0.9907591651547091</v>
+        <v>0.9788238607797005</v>
       </c>
       <c r="Z2">
-        <v>0.9907591651547091</v>
+        <v>0.9788238607797005</v>
       </c>
       <c r="AA2">
-        <v>0.9907591651547091</v>
+        <v>0.9820380348072735</v>
       </c>
       <c r="AB2">
-        <v>0.9977472015254416</v>
+        <v>0.9931633597646551</v>
       </c>
       <c r="AC2">
-        <v>0.9977472015254416</v>
+        <v>0.9931633597646551</v>
       </c>
       <c r="AD2">
-        <v>0.9977472015254416</v>
+        <v>0.9931633597646551</v>
       </c>
       <c r="AE2">
-        <v>0.9977472015254416</v>
+        <v>0.9931633597646551</v>
       </c>
       <c r="AF2">
-        <v>0.9977472015254416</v>
+        <v>0.9931633597646551</v>
       </c>
       <c r="AG2">
-        <v>0.9977472015254416</v>
+        <v>0.9931633597646551</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AK2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AL2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AM2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AN2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AO2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AP2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AQ2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AR2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AS2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AT2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AU2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AV2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AW2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AX2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AY2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AZ2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BA2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BB2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BC2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BD2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BE2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BF2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BG2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BH2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BI2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BJ2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BK2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BL2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BM2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BN2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BO2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BP2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BQ2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BR2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BS2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BT2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BU2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BV2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BW2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BX2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BY2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BZ2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:78">
@@ -3786,229 +3786,229 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2325903610789549</v>
+        <v>0.2293748482350864</v>
       </c>
       <c r="E3">
-        <v>0.2325903610789549</v>
+        <v>0.2301514055060769</v>
       </c>
       <c r="F3">
-        <v>0.4551503163784975</v>
+        <v>0.449687102259433</v>
       </c>
       <c r="G3">
-        <v>0.4551503163784975</v>
+        <v>0.449687102259433</v>
       </c>
       <c r="H3">
-        <v>0.6027762212559978</v>
+        <v>0.5957175501269082</v>
       </c>
       <c r="I3">
-        <v>0.6027762212559978</v>
+        <v>0.5957175501269082</v>
       </c>
       <c r="J3">
-        <v>0.6450300800482924</v>
+        <v>0.6383851285180363</v>
       </c>
       <c r="K3">
-        <v>0.6586526370189635</v>
+        <v>0.6529673311090843</v>
       </c>
       <c r="L3">
-        <v>0.8074982933712582</v>
+        <v>0.8001942728965962</v>
       </c>
       <c r="M3">
-        <v>0.8640780247783231</v>
+        <v>0.856914565989856</v>
       </c>
       <c r="N3">
-        <v>0.8746391794475471</v>
+        <v>0.8684937394260637</v>
       </c>
       <c r="O3">
-        <v>0.8813988769888058</v>
+        <v>0.8763439398420446</v>
       </c>
       <c r="P3">
-        <v>0.881747277882921</v>
+        <v>0.8779050907127887</v>
       </c>
       <c r="Q3">
-        <v>0.881747277882921</v>
+        <v>0.8779050907127887</v>
       </c>
       <c r="R3">
-        <v>0.881747277882921</v>
+        <v>0.8779050907127887</v>
       </c>
       <c r="S3">
-        <v>0.881747277882921</v>
+        <v>0.8779050907127887</v>
       </c>
       <c r="T3">
-        <v>0.8953322019350561</v>
+        <v>0.8924503779492321</v>
       </c>
       <c r="U3">
-        <v>0.8953322019350561</v>
+        <v>0.8924503779492321</v>
       </c>
       <c r="V3">
-        <v>0.8953322019350561</v>
+        <v>0.8924503779492321</v>
       </c>
       <c r="W3">
-        <v>0.9429663775510342</v>
+        <v>0.9403956842221752</v>
       </c>
       <c r="X3">
-        <v>0.9632906238099493</v>
+        <v>0.9615517919513248</v>
       </c>
       <c r="Y3">
-        <v>0.9632906238099493</v>
+        <v>0.9615517919513248</v>
       </c>
       <c r="Z3">
-        <v>0.9632906238099493</v>
+        <v>0.9615517919513248</v>
       </c>
       <c r="AA3">
-        <v>0.9632906238099493</v>
+        <v>0.9615517919513248</v>
       </c>
       <c r="AB3">
-        <v>0.9974107734007347</v>
+        <v>0.9962407502644642</v>
       </c>
       <c r="AC3">
-        <v>0.9974107734007347</v>
+        <v>0.9962407502644642</v>
       </c>
       <c r="AD3">
-        <v>0.9974107734007347</v>
+        <v>0.9962407502644642</v>
       </c>
       <c r="AE3">
-        <v>0.9974107734007347</v>
+        <v>0.9962407502644642</v>
       </c>
       <c r="AF3">
-        <v>0.9974107734007347</v>
+        <v>0.9962407502644642</v>
       </c>
       <c r="AG3">
-        <v>0.9974107734007347</v>
+        <v>0.9962407502644642</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AL3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AM3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AN3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AO3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AP3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AQ3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AR3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AS3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AT3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AU3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AV3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AW3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AX3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AY3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AZ3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BA3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BB3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BC3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BD3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BE3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BF3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BG3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BH3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BI3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BJ3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BK3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BL3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BM3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BN3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BO3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BP3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BQ3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BR3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BS3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BT3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BU3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BV3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BW3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BX3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BY3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BZ3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:78">
@@ -4151,100 +4151,100 @@
         <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.3437903632129047</v>
+        <v>0.2878469167324654</v>
       </c>
       <c r="AV4">
-        <v>0.4668102109722508</v>
+        <v>0.3972699636072957</v>
       </c>
       <c r="AW4">
-        <v>0.5810397868570619</v>
+        <v>0.4995888266569758</v>
       </c>
       <c r="AX4">
-        <v>0.5810397868570619</v>
+        <v>0.5018687254593766</v>
       </c>
       <c r="AY4">
-        <v>0.6681296598870285</v>
+        <v>0.5822536323365156</v>
       </c>
       <c r="AZ4">
-        <v>0.6681296598870285</v>
+        <v>0.5827774844286464</v>
       </c>
       <c r="BA4">
-        <v>0.7392479753811868</v>
+        <v>0.65025438546389</v>
       </c>
       <c r="BB4">
-        <v>0.7392479753811868</v>
+        <v>0.6561224205882606</v>
       </c>
       <c r="BC4">
-        <v>0.7714826505201141</v>
+        <v>0.692174067340433</v>
       </c>
       <c r="BD4">
-        <v>0.7990900663512879</v>
+        <v>0.7244860230798449</v>
       </c>
       <c r="BE4">
-        <v>0.7990900663512879</v>
+        <v>0.7248071132938297</v>
       </c>
       <c r="BF4">
-        <v>0.7990900663512879</v>
+        <v>0.7254483774964843</v>
       </c>
       <c r="BG4">
-        <v>0.7990900663512879</v>
+        <v>0.732581658717217</v>
       </c>
       <c r="BH4">
-        <v>0.8391238013273578</v>
+        <v>0.7749364045699889</v>
       </c>
       <c r="BI4">
-        <v>0.8391238013273578</v>
+        <v>0.7792230241165463</v>
       </c>
       <c r="BJ4">
-        <v>0.8391238013273578</v>
+        <v>0.780637874616909</v>
       </c>
       <c r="BK4">
-        <v>0.8663223379755485</v>
+        <v>0.8126193794988675</v>
       </c>
       <c r="BL4">
-        <v>0.8663223379755485</v>
+        <v>0.8149133477867557</v>
       </c>
       <c r="BM4">
-        <v>0.8663223379755485</v>
+        <v>0.819194875032046</v>
       </c>
       <c r="BN4">
-        <v>0.9114958417003671</v>
+        <v>0.8657035153867221</v>
       </c>
       <c r="BO4">
-        <v>0.9114958417003671</v>
+        <v>0.865763363661497</v>
       </c>
       <c r="BP4">
-        <v>0.9114958417003671</v>
+        <v>0.8677803163929865</v>
       </c>
       <c r="BQ4">
-        <v>0.9114958417003671</v>
+        <v>0.868458844671873</v>
       </c>
       <c r="BR4">
-        <v>0.9399805097490285</v>
+        <v>0.9014797842860734</v>
       </c>
       <c r="BS4">
-        <v>0.9779977344788744</v>
+        <v>0.9422048126876735</v>
       </c>
       <c r="BT4">
-        <v>0.9779977344788744</v>
+        <v>0.9437780304717996</v>
       </c>
       <c r="BU4">
-        <v>0.9785975745822227</v>
+        <v>0.9542628134706315</v>
       </c>
       <c r="BV4">
-        <v>0.9785975745822227</v>
+        <v>0.9549524566139964</v>
       </c>
       <c r="BW4">
-        <v>0.9785975745822227</v>
+        <v>0.9563311203494064</v>
       </c>
       <c r="BX4">
-        <v>0.9874471172168452</v>
+        <v>0.9734832060348322</v>
       </c>
       <c r="BY4">
-        <v>1</v>
+        <v>0.9936282832406284</v>
       </c>
       <c r="BZ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:78">
@@ -4387,97 +4387,97 @@
         <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.3186699027614827</v>
+        <v>0.2723463335971277</v>
       </c>
       <c r="AV5">
-        <v>0.4684226195061965</v>
+        <v>0.4056308855542993</v>
       </c>
       <c r="AW5">
-        <v>0.6060226756995499</v>
+        <v>0.5289107087577607</v>
       </c>
       <c r="AX5">
-        <v>0.6060226756995499</v>
+        <v>0.533424128857795</v>
       </c>
       <c r="AY5">
-        <v>0.6996442111674127</v>
+        <v>0.6204984504767739</v>
       </c>
       <c r="AZ5">
-        <v>0.6996442111674127</v>
+        <v>0.6206972222445062</v>
       </c>
       <c r="BA5">
-        <v>0.7940348334952118</v>
+        <v>0.7084046978456263</v>
       </c>
       <c r="BB5">
-        <v>0.8006550226344687</v>
+        <v>0.7238547963122629</v>
       </c>
       <c r="BC5">
-        <v>0.8454412434631244</v>
+        <v>0.7707252403932761</v>
       </c>
       <c r="BD5">
-        <v>0.8962103663423397</v>
+        <v>0.8225211336730792</v>
       </c>
       <c r="BE5">
-        <v>0.8962103663423397</v>
+        <v>0.8244129723647644</v>
       </c>
       <c r="BF5">
-        <v>0.8962103663423397</v>
+        <v>0.8244135286464901</v>
       </c>
       <c r="BG5">
-        <v>0.8962103663423397</v>
+        <v>0.8262506748278459</v>
       </c>
       <c r="BH5">
-        <v>0.914186795574537</v>
+        <v>0.8510498455664927</v>
       </c>
       <c r="BI5">
-        <v>0.9153873934384901</v>
+        <v>0.8620382427919702</v>
       </c>
       <c r="BJ5">
-        <v>0.9153873934384901</v>
+        <v>0.8621864427775248</v>
       </c>
       <c r="BK5">
-        <v>0.9237666687145806</v>
+        <v>0.8790847162819692</v>
       </c>
       <c r="BL5">
-        <v>0.9237666687145806</v>
+        <v>0.8799030494055873</v>
       </c>
       <c r="BM5">
-        <v>0.9237666687145806</v>
+        <v>0.8814444142148209</v>
       </c>
       <c r="BN5">
-        <v>0.9590409074502995</v>
+        <v>0.9204840791551027</v>
       </c>
       <c r="BO5">
-        <v>0.9590409074502995</v>
+        <v>0.9204983793303955</v>
       </c>
       <c r="BP5">
-        <v>0.9590409074502995</v>
+        <v>0.9210649909414284</v>
       </c>
       <c r="BQ5">
-        <v>0.9590409074502995</v>
+        <v>0.9212148345800955</v>
       </c>
       <c r="BR5">
-        <v>0.9773701268401236</v>
+        <v>0.94630444129522</v>
       </c>
       <c r="BS5">
-        <v>0.9996884454870861</v>
+        <v>0.9746780906996492</v>
       </c>
       <c r="BT5">
-        <v>0.9996884454870861</v>
+        <v>0.9746786469813749</v>
       </c>
       <c r="BU5">
-        <v>0.9996884454870861</v>
+        <v>0.9787977115714857</v>
       </c>
       <c r="BV5">
-        <v>0.9996884454870861</v>
+        <v>0.9792422169650979</v>
       </c>
       <c r="BW5">
-        <v>0.9996884454870861</v>
+        <v>0.9792722631087611</v>
       </c>
       <c r="BX5">
-        <v>0.9996884454870861</v>
+        <v>0.9887924830486255</v>
       </c>
       <c r="BY5">
-        <v>1</v>
+        <v>0.9990489716076968</v>
       </c>
       <c r="BZ5">
         <v>1</v>
@@ -4494,229 +4494,229 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.3186997858328221</v>
+        <v>0.2936945486033523</v>
       </c>
       <c r="E6">
-        <v>0.5010364719388608</v>
+        <v>0.4639102690180652</v>
       </c>
       <c r="F6">
-        <v>0.5566424944207111</v>
+        <v>0.5193694763347568</v>
       </c>
       <c r="G6">
-        <v>0.5566424944207111</v>
+        <v>0.5205934936775305</v>
       </c>
       <c r="H6">
-        <v>0.617196926712739</v>
+        <v>0.5805335601561371</v>
       </c>
       <c r="I6">
-        <v>0.617196926712739</v>
+        <v>0.5805335601561371</v>
       </c>
       <c r="J6">
-        <v>0.6496832936676917</v>
+        <v>0.6150575732868199</v>
       </c>
       <c r="K6">
-        <v>0.7310486118048617</v>
+        <v>0.6938422084418084</v>
       </c>
       <c r="L6">
-        <v>0.8242762272261857</v>
+        <v>0.7833683313688363</v>
       </c>
       <c r="M6">
-        <v>0.8446422212882662</v>
+        <v>0.8069171654003359</v>
       </c>
       <c r="N6">
-        <v>0.8446422212882662</v>
+        <v>0.8069171654003359</v>
       </c>
       <c r="O6">
-        <v>0.8446422212882662</v>
+        <v>0.8069171654003359</v>
       </c>
       <c r="P6">
-        <v>0.8514932544168302</v>
+        <v>0.8182279999845548</v>
       </c>
       <c r="Q6">
-        <v>0.8613103389638211</v>
+        <v>0.8322246385306109</v>
       </c>
       <c r="R6">
-        <v>0.8613103389638211</v>
+        <v>0.8322246385306109</v>
       </c>
       <c r="S6">
-        <v>0.8613103389638211</v>
+        <v>0.8322246385306109</v>
       </c>
       <c r="T6">
-        <v>0.8816593245040066</v>
+        <v>0.8557580710909132</v>
       </c>
       <c r="U6">
-        <v>0.8823896793266965</v>
+        <v>0.8615265398412428</v>
       </c>
       <c r="V6">
-        <v>0.8996719919053306</v>
+        <v>0.8822830541260817</v>
       </c>
       <c r="W6">
-        <v>0.9590134040874513</v>
+        <v>0.9411247127359855</v>
       </c>
       <c r="X6">
-        <v>0.9590134040874513</v>
+        <v>0.9411247127359855</v>
       </c>
       <c r="Y6">
-        <v>0.9590134040874513</v>
+        <v>0.9411247127359855</v>
       </c>
       <c r="Z6">
-        <v>0.9590134040874513</v>
+        <v>0.9411247127359855</v>
       </c>
       <c r="AA6">
-        <v>0.9711704686642088</v>
+        <v>0.9572402382290186</v>
       </c>
       <c r="AB6">
-        <v>0.9879442090582041</v>
+        <v>0.977536232787228</v>
       </c>
       <c r="AC6">
-        <v>0.9879442090582041</v>
+        <v>0.977536232787228</v>
       </c>
       <c r="AD6">
-        <v>0.9879442090582041</v>
+        <v>0.977536232787228</v>
       </c>
       <c r="AE6">
-        <v>0.9879442090582041</v>
+        <v>0.977536232787228</v>
       </c>
       <c r="AF6">
-        <v>0.9879442090582041</v>
+        <v>0.977536232787228</v>
       </c>
       <c r="AG6">
-        <v>0.9883207123345977</v>
+        <v>0.9829842836651497</v>
       </c>
       <c r="AH6">
-        <v>0.9999999999999999</v>
+        <v>0.9986671750125236</v>
       </c>
       <c r="AI6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AK6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AL6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AM6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AN6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AO6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AP6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AR6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AS6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AT6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AU6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AV6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AW6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AX6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AY6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AZ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BA6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BB6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BC6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BD6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BE6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BF6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BG6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BH6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BI6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BJ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BK6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BL6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BM6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BN6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BO6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BP6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BQ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BR6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BS6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BT6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BU6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BV6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BW6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BX6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BY6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BZ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:78">
@@ -4730,97 +4730,97 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03762056076857306</v>
+        <v>0.03682472244863324</v>
       </c>
       <c r="E7">
-        <v>0.2121020753986895</v>
+        <v>0.2292010162217474</v>
       </c>
       <c r="F7">
-        <v>0.3902476849635295</v>
+        <v>0.4257417974435966</v>
       </c>
       <c r="G7">
-        <v>0.4357622171323899</v>
+        <v>0.4715385431074666</v>
       </c>
       <c r="H7">
-        <v>0.4917194666490769</v>
+        <v>0.5292041311732035</v>
       </c>
       <c r="I7">
-        <v>0.5799415851392559</v>
+        <v>0.6235408874998495</v>
       </c>
       <c r="J7">
-        <v>0.6037833275014799</v>
+        <v>0.6447050669402075</v>
       </c>
       <c r="K7">
-        <v>0.6083010570397834</v>
+        <v>0.6447050669402075</v>
       </c>
       <c r="L7">
-        <v>0.673037316043933</v>
+        <v>0.7123485828364697</v>
       </c>
       <c r="M7">
-        <v>0.7718089750390515</v>
+        <v>0.8186755931836652</v>
       </c>
       <c r="N7">
-        <v>0.7809974176001229</v>
+        <v>0.8231853233830517</v>
       </c>
       <c r="O7">
-        <v>0.8239742196887814</v>
+        <v>0.8660977701257542</v>
       </c>
       <c r="P7">
-        <v>0.8239742196887814</v>
+        <v>0.8660977701257542</v>
       </c>
       <c r="Q7">
-        <v>0.8364365221417756</v>
+        <v>0.8743284597084867</v>
       </c>
       <c r="R7">
-        <v>0.8416571103668803</v>
+        <v>0.8743284597084867</v>
       </c>
       <c r="S7">
-        <v>0.8416571103668803</v>
+        <v>0.8743284597084867</v>
       </c>
       <c r="T7">
-        <v>0.8759830907566116</v>
+        <v>0.9074086725630828</v>
       </c>
       <c r="U7">
-        <v>0.8773722139056301</v>
+        <v>0.9074086725630828</v>
       </c>
       <c r="V7">
-        <v>0.8794694996454875</v>
+        <v>0.9074086725630828</v>
       </c>
       <c r="W7">
-        <v>0.9116257310397869</v>
+        <v>0.9380228214593596</v>
       </c>
       <c r="X7">
-        <v>0.9353886772451624</v>
+        <v>0.9590974438298134</v>
       </c>
       <c r="Y7">
-        <v>0.9415013622895801</v>
+        <v>0.9601113711633763</v>
       </c>
       <c r="Z7">
-        <v>0.9415013622895801</v>
+        <v>0.9601113711633763</v>
       </c>
       <c r="AA7">
-        <v>0.9415013622895801</v>
+        <v>0.9601113711633763</v>
       </c>
       <c r="AB7">
-        <v>0.9499085836241156</v>
+        <v>0.9637331915103836</v>
       </c>
       <c r="AC7">
-        <v>0.9746090351542556</v>
+        <v>0.985873350999187</v>
       </c>
       <c r="AD7">
-        <v>0.9852962031441498</v>
+        <v>0.9920864822699501</v>
       </c>
       <c r="AE7">
-        <v>0.9974794441776641</v>
+        <v>1</v>
       </c>
       <c r="AF7">
-        <v>0.9974794441776641</v>
+        <v>1</v>
       </c>
       <c r="AG7">
-        <v>0.9974794441776641</v>
+        <v>1</v>
       </c>
       <c r="AH7">
-        <v>0.9974794441776641</v>
+        <v>1</v>
       </c>
       <c r="AI7">
         <v>1</v>
@@ -4966,85 +4966,85 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1244469036359072</v>
+        <v>0.116403129651383</v>
       </c>
       <c r="E8">
-        <v>0.1448295780049801</v>
+        <v>0.1399499353098977</v>
       </c>
       <c r="F8">
-        <v>0.5118695162943537</v>
+        <v>0.4728183920280388</v>
       </c>
       <c r="G8">
-        <v>0.5391012981556579</v>
+        <v>0.502476643942787</v>
       </c>
       <c r="H8">
-        <v>0.6440644877303781</v>
+        <v>0.6014944906953653</v>
       </c>
       <c r="I8">
-        <v>0.6738638903226938</v>
+        <v>0.6334438259551721</v>
       </c>
       <c r="J8">
-        <v>0.6770009908330048</v>
+        <v>0.6416024371788246</v>
       </c>
       <c r="K8">
-        <v>0.7118406981738604</v>
+        <v>0.6780492272706192</v>
       </c>
       <c r="L8">
-        <v>0.8167473538117104</v>
+        <v>0.7770166288933427</v>
       </c>
       <c r="M8">
-        <v>0.8310851155359082</v>
+        <v>0.7951695699067656</v>
       </c>
       <c r="N8">
-        <v>0.893277796326795</v>
+        <v>0.8560233688501013</v>
       </c>
       <c r="O8">
-        <v>0.9205463462874651</v>
+        <v>0.8857144288735663</v>
       </c>
       <c r="P8">
-        <v>0.9205463462874651</v>
+        <v>0.8857144288735663</v>
       </c>
       <c r="Q8">
-        <v>0.9205463462874651</v>
+        <v>0.8870382441837905</v>
       </c>
       <c r="R8">
-        <v>0.9205463462874651</v>
+        <v>0.8870382441837905</v>
       </c>
       <c r="S8">
-        <v>0.9205463462874651</v>
+        <v>0.8870382441837905</v>
       </c>
       <c r="T8">
-        <v>0.9205463462874651</v>
+        <v>0.8913062971521387</v>
       </c>
       <c r="U8">
-        <v>0.9235422818972946</v>
+        <v>0.8993389471898208</v>
       </c>
       <c r="V8">
-        <v>0.9235422818972946</v>
+        <v>0.9000340909718392</v>
       </c>
       <c r="W8">
-        <v>0.9291135576372739</v>
+        <v>0.9103647123605015</v>
       </c>
       <c r="X8">
-        <v>0.9402632459565247</v>
+        <v>0.9256729412275082</v>
       </c>
       <c r="Y8">
-        <v>0.9402632459565247</v>
+        <v>0.9256729412275082</v>
       </c>
       <c r="Z8">
-        <v>0.9402632459565247</v>
+        <v>0.9256729412275082</v>
       </c>
       <c r="AA8">
-        <v>0.9402632459565247</v>
+        <v>0.9260376199458881</v>
       </c>
       <c r="AB8">
-        <v>0.9681626579245108</v>
+        <v>0.9562915970001026</v>
       </c>
       <c r="AC8">
-        <v>0.9975928945564607</v>
+        <v>0.987911526139628</v>
       </c>
       <c r="AD8">
-        <v>0.9975928945564607</v>
+        <v>0.9924927620571661</v>
       </c>
       <c r="AE8">
         <v>1</v>
@@ -5202,229 +5202,229 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.08018638720785579</v>
+        <v>0.07797544668933859</v>
       </c>
       <c r="E9">
-        <v>0.09045308561948937</v>
+        <v>0.09077793167019062</v>
       </c>
       <c r="F9">
-        <v>0.5034222268009415</v>
+        <v>0.4789440850884433</v>
       </c>
       <c r="G9">
-        <v>0.5162141449819186</v>
+        <v>0.4941003570235335</v>
       </c>
       <c r="H9">
-        <v>0.597125999251541</v>
+        <v>0.5727520200669678</v>
       </c>
       <c r="I9">
-        <v>0.6078525291564392</v>
+        <v>0.5859831193740396</v>
       </c>
       <c r="J9">
-        <v>0.6142042074416412</v>
+        <v>0.5951363681929357</v>
       </c>
       <c r="K9">
-        <v>0.6898094223180262</v>
+        <v>0.6688416504396223</v>
       </c>
       <c r="L9">
-        <v>0.7162670526239937</v>
+        <v>0.6967358928716481</v>
       </c>
       <c r="M9">
-        <v>0.7385312047840144</v>
+        <v>0.7207213451569143</v>
       </c>
       <c r="N9">
-        <v>0.838881745290284</v>
+        <v>0.8174920355526664</v>
       </c>
       <c r="O9">
-        <v>0.838881745290284</v>
+        <v>0.8174920355526664</v>
       </c>
       <c r="P9">
-        <v>0.838881745290284</v>
+        <v>0.8174920355526664</v>
       </c>
       <c r="Q9">
-        <v>0.842441318575748</v>
+        <v>0.8240427305649466</v>
       </c>
       <c r="R9">
-        <v>0.8552533195133346</v>
+        <v>0.8392177218729351</v>
       </c>
       <c r="S9">
-        <v>0.8552533195133346</v>
+        <v>0.8392177218729351</v>
       </c>
       <c r="T9">
-        <v>0.8552533195133346</v>
+        <v>0.8392177218729351</v>
       </c>
       <c r="U9">
-        <v>0.8624312784584893</v>
+        <v>0.8491411565827969</v>
       </c>
       <c r="V9">
-        <v>0.8624312784584893</v>
+        <v>0.8491411565827969</v>
       </c>
       <c r="W9">
-        <v>0.8686264868081341</v>
+        <v>0.8581485579402101</v>
       </c>
       <c r="X9">
-        <v>0.8926004409360453</v>
+        <v>0.8837277366865192</v>
       </c>
       <c r="Y9">
-        <v>0.8926004409360453</v>
+        <v>0.8837277366865192</v>
       </c>
       <c r="Z9">
-        <v>0.8926004409360453</v>
+        <v>0.8837277366865192</v>
       </c>
       <c r="AA9">
-        <v>0.8928591204988756</v>
+        <v>0.8872016299582201</v>
       </c>
       <c r="AB9">
-        <v>0.9532879890214815</v>
+        <v>0.9467608618317103</v>
       </c>
       <c r="AC9">
-        <v>0.9883526157787035</v>
+        <v>0.9826777865696819</v>
       </c>
       <c r="AD9">
-        <v>0.9900564380871923</v>
+        <v>0.9874987143383553</v>
       </c>
       <c r="AE9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AF9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AK9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AL9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AM9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AN9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AO9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AP9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AR9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AS9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AT9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AU9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AV9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AW9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AX9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AY9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AZ9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BA9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BB9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BC9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BD9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BE9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BF9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BG9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BH9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BI9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BJ9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BK9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BL9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BM9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BN9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BO9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BP9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BQ9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BR9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BS9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BT9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BU9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BV9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BW9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BX9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BY9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BZ9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:78">
@@ -5441,82 +5441,82 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3741538841149354</v>
+        <v>0.3425005477642192</v>
       </c>
       <c r="F10">
-        <v>0.521984287274328</v>
+        <v>0.4810068395484618</v>
       </c>
       <c r="G10">
-        <v>0.5855890011910336</v>
+        <v>0.543597204541009</v>
       </c>
       <c r="H10">
-        <v>0.6140681793088631</v>
+        <v>0.5745275424301498</v>
       </c>
       <c r="I10">
-        <v>0.6580238043356196</v>
+        <v>0.6194074106953293</v>
       </c>
       <c r="J10">
-        <v>0.6580238043356196</v>
+        <v>0.6194074106953293</v>
       </c>
       <c r="K10">
-        <v>0.6845565744283616</v>
+        <v>0.6485833744681178</v>
       </c>
       <c r="L10">
-        <v>0.7629748665509574</v>
+        <v>0.7245258002002457</v>
       </c>
       <c r="M10">
-        <v>0.8013988964523184</v>
+        <v>0.7644198241896862</v>
       </c>
       <c r="N10">
-        <v>0.8592562203977215</v>
+        <v>0.8218298405234351</v>
       </c>
       <c r="O10">
-        <v>0.9213208117006441</v>
+        <v>0.8830320324223636</v>
       </c>
       <c r="P10">
-        <v>0.9213208117006441</v>
+        <v>0.8830320324223636</v>
       </c>
       <c r="Q10">
-        <v>0.9213208117006441</v>
+        <v>0.8830320324223636</v>
       </c>
       <c r="R10">
-        <v>0.9221520175232317</v>
+        <v>0.8890421653291909</v>
       </c>
       <c r="S10">
-        <v>0.9221520175232317</v>
+        <v>0.8890421653291909</v>
       </c>
       <c r="T10">
-        <v>0.9221520175232317</v>
+        <v>0.8890421653291909</v>
       </c>
       <c r="U10">
-        <v>0.9221520175232317</v>
+        <v>0.8940721263534167</v>
       </c>
       <c r="V10">
-        <v>0.9221520175232317</v>
+        <v>0.8955085013653934</v>
       </c>
       <c r="W10">
-        <v>0.9248336524935494</v>
+        <v>0.9031864988510135</v>
       </c>
       <c r="X10">
-        <v>0.946893287265812</v>
+        <v>0.9283306498055015</v>
       </c>
       <c r="Y10">
-        <v>0.9510021229956169</v>
+        <v>0.9372950394756022</v>
       </c>
       <c r="Z10">
-        <v>0.9510021229956169</v>
+        <v>0.9372950394756022</v>
       </c>
       <c r="AA10">
-        <v>0.9510021229956169</v>
+        <v>0.9372950394756022</v>
       </c>
       <c r="AB10">
-        <v>0.9547504300971551</v>
+        <v>0.9459344705113967</v>
       </c>
       <c r="AC10">
-        <v>0.9884779862644119</v>
+        <v>0.9815953779851616</v>
       </c>
       <c r="AD10">
-        <v>0.9884779862644119</v>
+        <v>0.9843538213906688</v>
       </c>
       <c r="AE10">
         <v>0.9999999999999997</v>
@@ -5674,229 +5674,229 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2730809658405498</v>
+        <v>0.2481020034616606</v>
       </c>
       <c r="E11">
-        <v>0.3516728344215777</v>
+        <v>0.3238197882463996</v>
       </c>
       <c r="F11">
-        <v>0.4163226253085944</v>
+        <v>0.3871800979650273</v>
       </c>
       <c r="G11">
-        <v>0.5019059032061354</v>
+        <v>0.4690946755235507</v>
       </c>
       <c r="H11">
-        <v>0.6407894620838599</v>
+        <v>0.5982516302718295</v>
       </c>
       <c r="I11">
-        <v>0.6407894620838599</v>
+        <v>0.5982516302718295</v>
       </c>
       <c r="J11">
-        <v>0.6407894620838599</v>
+        <v>0.5982516302718295</v>
       </c>
       <c r="K11">
-        <v>0.6801223076939101</v>
+        <v>0.6391724207970871</v>
       </c>
       <c r="L11">
-        <v>0.7878253902117469</v>
+        <v>0.7406927515339892</v>
       </c>
       <c r="M11">
-        <v>0.8009900919794358</v>
+        <v>0.7584195682373035</v>
       </c>
       <c r="N11">
-        <v>0.8840408573361478</v>
+        <v>0.8380894688355665</v>
       </c>
       <c r="O11">
-        <v>0.8840408573361478</v>
+        <v>0.8380894688355665</v>
       </c>
       <c r="P11">
-        <v>0.8840408573361478</v>
+        <v>0.8380894688355665</v>
       </c>
       <c r="Q11">
-        <v>0.8840408573361478</v>
+        <v>0.8436282485192187</v>
       </c>
       <c r="R11">
-        <v>0.8840408573361478</v>
+        <v>0.8436282485192187</v>
       </c>
       <c r="S11">
-        <v>0.8909653012457719</v>
+        <v>0.8558240509376057</v>
       </c>
       <c r="T11">
-        <v>0.8989344053374391</v>
+        <v>0.8689457815021041</v>
       </c>
       <c r="U11">
-        <v>0.8989344053374391</v>
+        <v>0.8691689942460303</v>
       </c>
       <c r="V11">
-        <v>0.8999856975527006</v>
+        <v>0.8761591646764569</v>
       </c>
       <c r="W11">
-        <v>0.9071687613862374</v>
+        <v>0.888584193278451</v>
       </c>
       <c r="X11">
-        <v>0.9071687613862374</v>
+        <v>0.8908180137552261</v>
       </c>
       <c r="Y11">
-        <v>0.9071687613862374</v>
+        <v>0.8908180137552261</v>
       </c>
       <c r="Z11">
-        <v>0.9071687613862374</v>
+        <v>0.8934861448408024</v>
       </c>
       <c r="AA11">
-        <v>0.915009311800385</v>
+        <v>0.9064939326415701</v>
       </c>
       <c r="AB11">
-        <v>0.952087160681042</v>
+        <v>0.9454160206442038</v>
       </c>
       <c r="AC11">
-        <v>0.9697604171540767</v>
+        <v>0.9671389671624768</v>
       </c>
       <c r="AD11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AE11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AF11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AK11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AL11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AM11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AN11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AO11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AP11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AQ11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AR11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AS11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AT11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AU11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AV11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AW11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AX11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AY11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AZ11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BA11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BB11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BC11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BD11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BE11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BF11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BG11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BH11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BI11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BJ11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BK11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BL11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BM11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BN11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BO11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BP11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BQ11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BR11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BS11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BT11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BU11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BV11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BW11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BX11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BY11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BZ11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5970,7 +5970,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6112352820822157</v>
+        <v>0.5727783434340648</v>
       </c>
       <c r="G2">
         <v>6</v>
@@ -6011,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6027762212559978</v>
+        <v>0.5957175501269082</v>
       </c>
       <c r="G3">
         <v>6</v>
@@ -6046,16 +6046,16 @@
         <v>44</v>
       </c>
       <c r="D4">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5810397868570619</v>
+        <v>0.5018687254593766</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H4">
         <v>15</v>
@@ -6093,7 +6093,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6060226756995499</v>
+        <v>0.5289107087577607</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -6128,16 +6128,16 @@
         <v>1</v>
       </c>
       <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.5193694763347568</v>
+      </c>
+      <c r="G6">
         <v>4</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.5010364719388608</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
       </c>
       <c r="H6">
         <v>15</v>
@@ -6169,16 +6169,16 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5799415851392559</v>
+        <v>0.5292041311732035</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H7">
         <v>15</v>
@@ -6210,16 +6210,16 @@
         <v>1</v>
       </c>
       <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.502476643942787</v>
+      </c>
+      <c r="G8">
         <v>5</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.5118695162943537</v>
-      </c>
-      <c r="G8">
-        <v>4</v>
       </c>
       <c r="H8">
         <v>15</v>
@@ -6251,16 +6251,16 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5034222268009415</v>
+        <v>0.5727520200669678</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H9">
         <v>15</v>
@@ -6292,16 +6292,16 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.521984287274328</v>
+        <v>0.543597204541009</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10">
         <v>15</v>
@@ -6333,16 +6333,16 @@
         <v>1</v>
       </c>
       <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.5982516302718295</v>
+      </c>
+      <c r="G11">
         <v>6</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.5019059032061354</v>
-      </c>
-      <c r="G11">
-        <v>5</v>
       </c>
       <c r="H11">
         <v>15</v>
@@ -6434,7 +6434,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8444987178650233</v>
+        <v>0.8032292012957567</v>
       </c>
       <c r="G2">
         <v>10</v>
@@ -6475,7 +6475,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8074982933712582</v>
+        <v>0.8001942728965962</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -6510,16 +6510,16 @@
         <v>44</v>
       </c>
       <c r="D4">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7392479753811868</v>
+        <v>0.7244860230798449</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <v>15</v>
@@ -6557,7 +6557,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7940348334952118</v>
+        <v>0.7084046978456263</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -6592,16 +6592,16 @@
         <v>1</v>
       </c>
       <c r="D6">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.7833683313688363</v>
+      </c>
+      <c r="G6">
         <v>10</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.7310486118048617</v>
-      </c>
-      <c r="G6">
-        <v>9</v>
       </c>
       <c r="H6">
         <v>15</v>
@@ -6633,16 +6633,16 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7718089750390515</v>
+        <v>0.7123485828364697</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7">
         <v>15</v>
@@ -6674,16 +6674,16 @@
         <v>1</v>
       </c>
       <c r="D8">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.7770166288933427</v>
+      </c>
+      <c r="G8">
         <v>10</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.7118406981738604</v>
-      </c>
-      <c r="G8">
-        <v>9</v>
       </c>
       <c r="H8">
         <v>15</v>
@@ -6715,16 +6715,16 @@
         <v>1</v>
       </c>
       <c r="D9">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.7207213451569143</v>
+      </c>
+      <c r="G9">
         <v>11</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.7162670526239937</v>
-      </c>
-      <c r="G9">
-        <v>10</v>
       </c>
       <c r="H9">
         <v>15</v>
@@ -6762,7 +6762,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7629748665509574</v>
+        <v>0.7245258002002457</v>
       </c>
       <c r="G10">
         <v>9</v>
@@ -6803,7 +6803,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7878253902117469</v>
+        <v>0.7406927515339892</v>
       </c>
       <c r="G11">
         <v>10</v>
@@ -6898,7 +6898,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8444987178650233</v>
+        <v>0.8032292012957567</v>
       </c>
       <c r="G2">
         <v>10</v>
@@ -6939,7 +6939,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8074982933712582</v>
+        <v>0.8001942728965962</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -6974,16 +6974,16 @@
         <v>44</v>
       </c>
       <c r="D4">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8391238013273578</v>
+        <v>0.8126193794988675</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H4">
         <v>15</v>
@@ -7015,16 +7015,16 @@
         <v>44</v>
       </c>
       <c r="D5">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8006550226344687</v>
+        <v>0.8225211336730792</v>
       </c>
       <c r="G5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H5">
         <v>15</v>
@@ -7056,16 +7056,16 @@
         <v>1</v>
       </c>
       <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.8069171654003359</v>
+      </c>
+      <c r="G6">
         <v>11</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.8242762272261857</v>
-      </c>
-      <c r="G6">
-        <v>10</v>
       </c>
       <c r="H6">
         <v>15</v>
@@ -7097,16 +7097,16 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8239742196887814</v>
+        <v>0.8186755931836652</v>
       </c>
       <c r="G7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H7">
         <v>15</v>
@@ -7138,16 +7138,16 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8167473538117104</v>
+        <v>0.8560233688501013</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H8">
         <v>15</v>
@@ -7185,7 +7185,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.838881745290284</v>
+        <v>0.8174920355526664</v>
       </c>
       <c r="G9">
         <v>12</v>
@@ -7220,16 +7220,16 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8013988964523184</v>
+        <v>0.8218298405234351</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H10">
         <v>15</v>
@@ -7261,16 +7261,16 @@
         <v>1</v>
       </c>
       <c r="D11">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.8380894688355665</v>
+      </c>
+      <c r="G11">
         <v>12</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.8009900919794358</v>
-      </c>
-      <c r="G11">
-        <v>11</v>
       </c>
       <c r="H11">
         <v>15</v>
@@ -7356,16 +7356,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9045449952674699</v>
+        <v>0.9061867180719301</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <v>15</v>
@@ -7403,7 +7403,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9429663775510342</v>
+        <v>0.9403956842221752</v>
       </c>
       <c r="G3">
         <v>21</v>
@@ -7438,16 +7438,16 @@
         <v>44</v>
       </c>
       <c r="D4">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9114958417003671</v>
+        <v>0.9014797842860734</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H4">
         <v>15</v>
@@ -7479,16 +7479,16 @@
         <v>44</v>
       </c>
       <c r="D5">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.914186795574537</v>
+        <v>0.9204840791551027</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H5">
         <v>15</v>
@@ -7526,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9590134040874513</v>
+        <v>0.9411247127359855</v>
       </c>
       <c r="G6">
         <v>21</v>
@@ -7561,16 +7561,16 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9116257310397869</v>
+        <v>0.9074086725630828</v>
       </c>
       <c r="G7">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H7">
         <v>15</v>
@@ -7602,16 +7602,16 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9205463462874651</v>
+        <v>0.9000340909718392</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H8">
         <v>15</v>
@@ -7649,7 +7649,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9532879890214815</v>
+        <v>0.9467608618317103</v>
       </c>
       <c r="G9">
         <v>26</v>
@@ -7684,16 +7684,16 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9213208117006441</v>
+        <v>0.9031864988510135</v>
       </c>
       <c r="G10">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H10">
         <v>15</v>
@@ -7725,16 +7725,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9071687613862374</v>
+        <v>0.9064939326415701</v>
       </c>
       <c r="G11">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H11">
         <v>15</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/15_225-80R17.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/15_225-80R17.xlsx
@@ -285,40 +285,43 @@
     <t>signal segment 10</t>
   </si>
   <si>
+    <t>First_Noticeable_Increase_Cumulative_Value</t>
+  </si>
+  <si>
+    <t>First_Noticeable_Increase_Index</t>
+  </si>
+  <si>
     <t>Intensity_Threshold</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Index</t>
+    <t>Point_Exceeds_Cumulative_Value</t>
   </si>
   <si>
     <t>Point_Exceeds_Index</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Cumulative_Value</t>
-  </si>
-  <si>
-    <t>Point_Exceeds_Cumulative_Value</t>
+    <t>Pressure</t>
   </si>
   <si>
     <t>Pulse_Width</t>
   </si>
   <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>TireSize</t>
+  </si>
+  <si>
     <t>Tire_Number</t>
   </si>
   <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>TireSize</t>
-  </si>
-  <si>
     <t>Tire_Type</t>
   </si>
   <si>
     <t>Wear</t>
   </si>
   <si>
-    <t>Rim</t>
+    <t>Ir</t>
   </si>
   <si>
     <t>225-80R17.5</t>
@@ -328,9 +331,6 @@
   </si>
   <si>
     <t>0%</t>
-  </si>
-  <si>
-    <t>Ir</t>
   </si>
 </sst>
 </file>
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3135795569284398</v>
+        <v>0.4657896551050681</v>
       </c>
       <c r="E2">
-        <v>0.1138110322681014</v>
+        <v>0.139608089018917</v>
       </c>
       <c r="F2">
-        <v>0.0392712335436213</v>
+        <v>0.01789968512978037</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.1061165206939023</v>
+        <v>0.1270445090465082</v>
       </c>
       <c r="I2">
-        <v>0.02486718822266335</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02810001228790762</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.01777517045649448</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1597084868946266</v>
+        <v>0.2145493424265932</v>
       </c>
       <c r="M2">
-        <v>0.02245647791766954</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.02760725577462479</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.004756875265093706</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.01870879394563297</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -986,22 +986,22 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.007639966854444206</v>
+        <v>0</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.005581514702698326</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.01620663231600983</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.04981083393519888</v>
+        <v>0.03510871927313321</v>
       </c>
       <c r="X2">
-        <v>0.0228263087725715</v>
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -1010,10 +1010,10 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.003214174027572987</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.01112532495738156</v>
+        <v>0</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.006836640235344683</v>
+        <v>0</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -1177,43 +1177,43 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2293748482350864</v>
+        <v>0.284728672599002</v>
       </c>
       <c r="E3">
-        <v>0.0007765572709904567</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.2195356967533561</v>
+        <v>0.2709247238268212</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.1460304478674752</v>
+        <v>0.1677997041550365</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04266757839112812</v>
+        <v>0.02278559822867894</v>
       </c>
       <c r="K3">
-        <v>0.01458220259104799</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1472269417875118</v>
+        <v>0.1694783388227799</v>
       </c>
       <c r="M3">
-        <v>0.05672029309325987</v>
+        <v>0.04250101314209852</v>
       </c>
       <c r="N3">
-        <v>0.01157917343620758</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.007850200415980927</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.001561150870744069</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -1225,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.01454528723644348</v>
+        <v>0</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -1234,10 +1234,10 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0.04794530627294318</v>
+        <v>0.03019004620870678</v>
       </c>
       <c r="X3">
-        <v>0.02115610772914955</v>
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.0346889583131395</v>
+        <v>0.01159190301687593</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -1267,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.00375924973553567</v>
+        <v>0</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -1542,100 +1542,100 @@
         <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.2878469167324654</v>
+        <v>0.4684675315117895</v>
       </c>
       <c r="AV4">
-        <v>0.1094230468748304</v>
+        <v>0.144299257815838</v>
       </c>
       <c r="AW4">
-        <v>0.1023188630496801</v>
+        <v>0.1313920665949818</v>
       </c>
       <c r="AX4">
-        <v>0.002279898802400759</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.08038490687713902</v>
+        <v>0.0915414977588242</v>
       </c>
       <c r="AZ4">
-        <v>0.0005238520921307552</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.06747690103524367</v>
+        <v>0.06808966940220806</v>
       </c>
       <c r="BB4">
-        <v>0.005868035124370585</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.0360516467521723</v>
+        <v>0.01099489593087908</v>
       </c>
       <c r="BD4">
-        <v>0.03231195573941197</v>
+        <v>0.004200462087862041</v>
       </c>
       <c r="BE4">
-        <v>0.0003210902139847983</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.0006412642026544852</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.007133281220732739</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.04235474585277189</v>
+        <v>0.02244664146249546</v>
       </c>
       <c r="BI4">
-        <v>0.004286619546557372</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.001414850500362672</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.03198150488195851</v>
+        <v>0.003600084548200406</v>
       </c>
       <c r="BL4">
-        <v>0.002293968287888248</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.004281527245290251</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.04650864035467611</v>
+        <v>0.02999361828163866</v>
       </c>
       <c r="BO4">
-        <v>5.984827477489519E-05</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.002016952731489548</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.0006785282788865063</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.03302093961420051</v>
+        <v>0.005488574933704085</v>
       </c>
       <c r="BS4">
-        <v>0.0407250284016001</v>
+        <v>0.01948569967157891</v>
       </c>
       <c r="BT4">
-        <v>0.00157321778412607</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.01048478299883182</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.0006896431433649063</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.001378663735409999</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.0171520856854258</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.02014507720579613</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.006371716759371527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:78">
@@ -1778,100 +1778,100 @@
         <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.2723463335971277</v>
+        <v>0.4029712915162664</v>
       </c>
       <c r="AV5">
-        <v>0.1332845519571716</v>
+        <v>0.1717406187999111</v>
       </c>
       <c r="AW5">
-        <v>0.1232798232034614</v>
+        <v>0.1551048463196282</v>
       </c>
       <c r="AX5">
-        <v>0.004513420100034255</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.08707432161897891</v>
+        <v>0.09490266575870034</v>
       </c>
       <c r="AZ5">
-        <v>0.0001987717677322902</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.08770747560112016</v>
+        <v>0.0959554684734147</v>
       </c>
       <c r="BB5">
-        <v>0.01545009846663662</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.04687044408101311</v>
+        <v>0.0280520218270774</v>
       </c>
       <c r="BD5">
-        <v>0.05179589327980316</v>
+        <v>0.03624201420481937</v>
       </c>
       <c r="BE5">
-        <v>0.001891838691685242</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>5.562817256490724E-07</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.00183714618135577</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.02479917073864684</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.01098839722547751</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.0001481999855545442</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.01689827350444437</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.0008183331236180897</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.001541364809233576</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.03903966494028179</v>
+        <v>0.01503107310018261</v>
       </c>
       <c r="BO5">
-        <v>1.430017529281221E-05</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.0005666116110328764</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.0001498436386670544</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.02508960671512449</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.02837364940442922</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>5.562817256490724E-07</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.004119064590110762</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.0004445053936122747</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>3.004614366315953E-05</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.009520219939864448</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.01025648855907126</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.0009510283923031766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:78">
@@ -1885,34 +1885,34 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2936945486033523</v>
+        <v>0.4323511836818331</v>
       </c>
       <c r="E6">
-        <v>0.1702157204147129</v>
+        <v>0.2310938152694184</v>
       </c>
       <c r="F6">
-        <v>0.0554592073166916</v>
+        <v>0.04405289357384407</v>
       </c>
       <c r="G6">
-        <v>0.00122401734277372</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.05994006647860663</v>
+        <v>0.05135621784718414</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.03452401313068273</v>
+        <v>0.009930751738789963</v>
       </c>
       <c r="K6">
-        <v>0.07878463515498856</v>
+        <v>0.08207086226283775</v>
       </c>
       <c r="L6">
-        <v>0.08952612292702784</v>
+        <v>0.0995783458820713</v>
       </c>
       <c r="M6">
-        <v>0.02354883403149957</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1921,10 +1921,10 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.01131083458421891</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.01399663854605614</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1933,16 +1933,16 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.02353343256030223</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.005768468750329618</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.02075651428483877</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.05884165860990384</v>
+        <v>0.04956592974402127</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -1954,10 +1954,10 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.01611552549303309</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.02029599455820939</v>
+        <v>0</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -1972,13 +1972,13 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.005448050877921677</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.01568289134737384</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.001332824987476724</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -2121,46 +2121,46 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03682472244863324</v>
+        <v>0.01850039070341701</v>
       </c>
       <c r="E7">
-        <v>0.1923762937731141</v>
+        <v>0.2667662613687347</v>
       </c>
       <c r="F7">
-        <v>0.1965407812218493</v>
+        <v>0.2734129322672131</v>
       </c>
       <c r="G7">
-        <v>0.04579674566386997</v>
+        <v>0.03282006061220712</v>
       </c>
       <c r="H7">
-        <v>0.05766558806573695</v>
+        <v>0.05176315753883522</v>
       </c>
       <c r="I7">
-        <v>0.094336756326646</v>
+        <v>0.1102916535166584</v>
       </c>
       <c r="J7">
-        <v>0.02116417944035796</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.06764351589626225</v>
+        <v>0.06768828718676188</v>
       </c>
       <c r="M7">
-        <v>0.1063270103471955</v>
+        <v>0.129428527728623</v>
       </c>
       <c r="N7">
-        <v>0.004509730199386523</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0429124467427024</v>
+        <v>0.02821661638579701</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.008230689582732561</v>
+        <v>0</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -2169,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>0.03308021285459604</v>
+        <v>0.01252401948027416</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -2178,13 +2178,13 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>0.03061414889627678</v>
+        <v>0.008588093211478324</v>
       </c>
       <c r="X7">
-        <v>0.0210746223704539</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>0.001013927333562848</v>
+        <v>0</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -2193,16 +2193,16 @@
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.00362182034700727</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>0.02214015948880341</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>0.006213131270763024</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>0.007913517730050331</v>
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -2357,46 +2357,46 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.116403129651383</v>
+        <v>0.1507761456218258</v>
       </c>
       <c r="E8">
-        <v>0.02354680565851471</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.3328684567181411</v>
+        <v>0.5232582470005183</v>
       </c>
       <c r="G8">
-        <v>0.02965825191474813</v>
+        <v>0.001510141772559071</v>
       </c>
       <c r="H8">
-        <v>0.0990178467525783</v>
+        <v>0.1208604690792602</v>
       </c>
       <c r="I8">
-        <v>0.0319493352598068</v>
+        <v>0.005452516980473975</v>
       </c>
       <c r="J8">
-        <v>0.008158611223652475</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.03644679009179463</v>
+        <v>0.01319149970521279</v>
       </c>
       <c r="L8">
-        <v>0.09896740162272338</v>
+        <v>0.1207736657642568</v>
       </c>
       <c r="M8">
-        <v>0.01815294101342292</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.0608537989433357</v>
+        <v>0.05518979138814196</v>
       </c>
       <c r="O8">
-        <v>0.02969106002346496</v>
+        <v>0.001566596233154214</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.001323815310224144</v>
+        <v>0</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -2405,19 +2405,19 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>0.004268052968348169</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>0.008032650037682103</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>0.000695143782018446</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>0.01033062138866242</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>0.01530822886700662</v>
+        <v>0</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -2426,19 +2426,19 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>0.0003646787183798235</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.03025397705421456</v>
+        <v>0.002535234127068747</v>
       </c>
       <c r="AC8">
-        <v>0.03161992913952536</v>
+        <v>0.004885692327528081</v>
       </c>
       <c r="AD8">
-        <v>0.004581235917538146</v>
+        <v>0</v>
       </c>
       <c r="AE8">
-        <v>0.007507237942834291</v>
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -2593,37 +2593,37 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.07797544668933859</v>
+        <v>0.08153183055788285</v>
       </c>
       <c r="E9">
-        <v>0.01280248498085203</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.3881661534182527</v>
+        <v>0.5836234111417611</v>
       </c>
       <c r="G9">
-        <v>0.01515627193509024</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07865166304343424</v>
+        <v>0.08262639119648144</v>
       </c>
       <c r="I9">
-        <v>0.01323109930707181</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.009153248818896094</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.07370528224668664</v>
+        <v>0.07461990970450307</v>
       </c>
       <c r="L9">
-        <v>0.02789424243202579</v>
+        <v>0.0004676643606872938</v>
       </c>
       <c r="M9">
-        <v>0.02398545228526625</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.09677069039575206</v>
+        <v>0.1119548361969898</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -2632,10 +2632,10 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.006550695012280261</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>0.01517499130798846</v>
+        <v>0</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -2644,16 +2644,16 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0.00992343470986177</v>
+        <v>0</v>
       </c>
       <c r="V9">
         <v>0</v>
       </c>
       <c r="W9">
-        <v>0.009007401357413229</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>0.02557917874630915</v>
+        <v>0</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -2662,19 +2662,19 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>0.003473893271700873</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.05955923187349019</v>
+        <v>0.05172234173479411</v>
       </c>
       <c r="AC9">
-        <v>0.03591692473797162</v>
+        <v>0.01345361510690021</v>
       </c>
       <c r="AD9">
-        <v>0.004820927768673458</v>
+        <v>0</v>
       </c>
       <c r="AE9">
-        <v>0.01250128566164478</v>
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -2832,37 +2832,37 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3425005477642192</v>
+        <v>0.5167037851539915</v>
       </c>
       <c r="F10">
-        <v>0.1385062917842426</v>
+        <v>0.1813162529780541</v>
       </c>
       <c r="G10">
-        <v>0.06259036499254721</v>
+        <v>0.05650266341298794</v>
       </c>
       <c r="H10">
-        <v>0.03093033788914083</v>
+        <v>0.004450323469273963</v>
       </c>
       <c r="I10">
-        <v>0.04487986826517948</v>
+        <v>0.02738478574301613</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.02917596377278843</v>
+        <v>0.001565952031606977</v>
       </c>
       <c r="L10">
-        <v>0.07594242573212799</v>
+        <v>0.07845482417064566</v>
       </c>
       <c r="M10">
-        <v>0.03989402398944056</v>
+        <v>0.01918754509317286</v>
       </c>
       <c r="N10">
-        <v>0.05741001633374884</v>
+        <v>0.0479856375578293</v>
       </c>
       <c r="O10">
-        <v>0.06120219189892848</v>
+        <v>0.05422036411066093</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="R10">
-        <v>0.006010132906827285</v>
+        <v>0</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -2880,19 +2880,19 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0.00502996102422587</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>0.001436375011976732</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>0.007677997485620131</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>0.02514415095448792</v>
+        <v>0</v>
       </c>
       <c r="Y10">
-        <v>0.008964389670100718</v>
+        <v>0</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -2901,16 +2901,16 @@
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.008639431035794431</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>0.03566090747376496</v>
+        <v>0.01222786627876055</v>
       </c>
       <c r="AD10">
-        <v>0.002758443405507246</v>
+        <v>0</v>
       </c>
       <c r="AE10">
-        <v>0.01564617860933083</v>
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -3065,19 +3065,19 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2481020034616606</v>
+        <v>0.3617043619027629</v>
       </c>
       <c r="E11">
-        <v>0.07571778478473905</v>
+        <v>0.07776935810790259</v>
       </c>
       <c r="F11">
-        <v>0.06336030971862763</v>
+        <v>0.05741529230813704</v>
       </c>
       <c r="G11">
-        <v>0.08191457755852345</v>
+        <v>0.08797612989504644</v>
       </c>
       <c r="H11">
-        <v>0.1291569547482787</v>
+        <v>0.1657893116909459</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -3086,16 +3086,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.04092079052525764</v>
+        <v>0.02045503564296391</v>
       </c>
       <c r="L11">
-        <v>0.1015203307369021</v>
+        <v>0.1202688748216404</v>
       </c>
       <c r="M11">
-        <v>0.01772681670331434</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.07966990059826294</v>
+        <v>0.08427891000959802</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -3104,46 +3104,46 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.005538779683652231</v>
+        <v>0</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01219580241838705</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>0.01312173056449838</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>0.0002232127439262404</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>0.006990170430426604</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>0.012425028601994</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>0.002233820476775104</v>
+        <v>0</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0.002668131085576231</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>0.01300778780076773</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.03892208800263371</v>
+        <v>0.01716296161958928</v>
       </c>
       <c r="AC11">
-        <v>0.021722946518273</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>0.03286103283752314</v>
+        <v>0.007179764001413571</v>
       </c>
       <c r="AE11">
         <v>0</v>
@@ -3550,229 +3550,229 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3135795569284398</v>
+        <v>0.4657896551050681</v>
       </c>
       <c r="E2">
-        <v>0.4273905891965412</v>
+        <v>0.6053977441239851</v>
       </c>
       <c r="F2">
-        <v>0.4666618227401624</v>
+        <v>0.6232974292537654</v>
       </c>
       <c r="G2">
-        <v>0.4666618227401624</v>
+        <v>0.6232974292537654</v>
       </c>
       <c r="H2">
-        <v>0.5727783434340648</v>
+        <v>0.7503419383002736</v>
       </c>
       <c r="I2">
-        <v>0.5976455316567281</v>
+        <v>0.7503419383002736</v>
       </c>
       <c r="J2">
-        <v>0.6257455439446357</v>
+        <v>0.7503419383002736</v>
       </c>
       <c r="K2">
-        <v>0.6435207144011301</v>
+        <v>0.7503419383002736</v>
       </c>
       <c r="L2">
-        <v>0.8032292012957567</v>
+        <v>0.9648912807268668</v>
       </c>
       <c r="M2">
-        <v>0.8256856792134263</v>
+        <v>0.9648912807268668</v>
       </c>
       <c r="N2">
-        <v>0.853292934988051</v>
+        <v>0.9648912807268668</v>
       </c>
       <c r="O2">
-        <v>0.8580498102531448</v>
+        <v>0.9648912807268668</v>
       </c>
       <c r="P2">
-        <v>0.8767586041987777</v>
+        <v>0.9648912807268668</v>
       </c>
       <c r="Q2">
-        <v>0.8767586041987777</v>
+        <v>0.9648912807268668</v>
       </c>
       <c r="R2">
-        <v>0.8767586041987777</v>
+        <v>0.9648912807268668</v>
       </c>
       <c r="S2">
-        <v>0.8843985710532219</v>
+        <v>0.9648912807268668</v>
       </c>
       <c r="T2">
-        <v>0.8843985710532219</v>
+        <v>0.9648912807268668</v>
       </c>
       <c r="U2">
-        <v>0.8899800857559202</v>
+        <v>0.9648912807268668</v>
       </c>
       <c r="V2">
-        <v>0.9061867180719301</v>
+        <v>0.9648912807268668</v>
       </c>
       <c r="W2">
-        <v>0.955997552007129</v>
+        <v>1</v>
       </c>
       <c r="X2">
-        <v>0.9788238607797005</v>
+        <v>1</v>
       </c>
       <c r="Y2">
-        <v>0.9788238607797005</v>
+        <v>1</v>
       </c>
       <c r="Z2">
-        <v>0.9788238607797005</v>
+        <v>1</v>
       </c>
       <c r="AA2">
-        <v>0.9820380348072735</v>
+        <v>1</v>
       </c>
       <c r="AB2">
-        <v>0.9931633597646551</v>
+        <v>1</v>
       </c>
       <c r="AC2">
-        <v>0.9931633597646551</v>
+        <v>1</v>
       </c>
       <c r="AD2">
-        <v>0.9931633597646551</v>
+        <v>1</v>
       </c>
       <c r="AE2">
-        <v>0.9931633597646551</v>
+        <v>1</v>
       </c>
       <c r="AF2">
-        <v>0.9931633597646551</v>
+        <v>1</v>
       </c>
       <c r="AG2">
-        <v>0.9931633597646551</v>
+        <v>1</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AI2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AK2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AL2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AM2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AN2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AO2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AP2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AR2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AS2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AT2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AU2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AV2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AW2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AX2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AY2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AZ2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BA2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BB2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BC2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BD2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BE2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BF2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BG2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BH2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BI2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BJ2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BK2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BL2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BM2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BN2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BO2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BP2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BQ2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BR2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BS2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BT2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BU2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BV2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BW2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BX2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BY2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BZ2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:78">
@@ -3786,94 +3786,94 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2293748482350864</v>
+        <v>0.284728672599002</v>
       </c>
       <c r="E3">
-        <v>0.2301514055060769</v>
+        <v>0.284728672599002</v>
       </c>
       <c r="F3">
-        <v>0.449687102259433</v>
+        <v>0.5556533964258232</v>
       </c>
       <c r="G3">
-        <v>0.449687102259433</v>
+        <v>0.5556533964258232</v>
       </c>
       <c r="H3">
-        <v>0.5957175501269082</v>
+        <v>0.7234531005808598</v>
       </c>
       <c r="I3">
-        <v>0.5957175501269082</v>
+        <v>0.7234531005808598</v>
       </c>
       <c r="J3">
-        <v>0.6383851285180363</v>
+        <v>0.7462386988095387</v>
       </c>
       <c r="K3">
-        <v>0.6529673311090843</v>
+        <v>0.7462386988095387</v>
       </c>
       <c r="L3">
-        <v>0.8001942728965962</v>
+        <v>0.9157170376323186</v>
       </c>
       <c r="M3">
-        <v>0.856914565989856</v>
+        <v>0.9582180507744171</v>
       </c>
       <c r="N3">
-        <v>0.8684937394260637</v>
+        <v>0.9582180507744171</v>
       </c>
       <c r="O3">
-        <v>0.8763439398420446</v>
+        <v>0.9582180507744171</v>
       </c>
       <c r="P3">
-        <v>0.8779050907127887</v>
+        <v>0.9582180507744171</v>
       </c>
       <c r="Q3">
-        <v>0.8779050907127887</v>
+        <v>0.9582180507744171</v>
       </c>
       <c r="R3">
-        <v>0.8779050907127887</v>
+        <v>0.9582180507744171</v>
       </c>
       <c r="S3">
-        <v>0.8779050907127887</v>
+        <v>0.9582180507744171</v>
       </c>
       <c r="T3">
-        <v>0.8924503779492321</v>
+        <v>0.9582180507744171</v>
       </c>
       <c r="U3">
-        <v>0.8924503779492321</v>
+        <v>0.9582180507744171</v>
       </c>
       <c r="V3">
-        <v>0.8924503779492321</v>
+        <v>0.9582180507744171</v>
       </c>
       <c r="W3">
-        <v>0.9403956842221752</v>
+        <v>0.9884080969831239</v>
       </c>
       <c r="X3">
-        <v>0.9615517919513248</v>
+        <v>0.9884080969831239</v>
       </c>
       <c r="Y3">
-        <v>0.9615517919513248</v>
+        <v>0.9884080969831239</v>
       </c>
       <c r="Z3">
-        <v>0.9615517919513248</v>
+        <v>0.9884080969831239</v>
       </c>
       <c r="AA3">
-        <v>0.9615517919513248</v>
+        <v>0.9884080969831239</v>
       </c>
       <c r="AB3">
-        <v>0.9962407502644642</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC3">
-        <v>0.9962407502644642</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD3">
-        <v>0.9962407502644642</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE3">
-        <v>0.9962407502644642</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF3">
-        <v>0.9962407502644642</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG3">
-        <v>0.9962407502644642</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH3">
         <v>0.9999999999999999</v>
@@ -4151,100 +4151,100 @@
         <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.2878469167324654</v>
+        <v>0.4684675315117895</v>
       </c>
       <c r="AV4">
-        <v>0.3972699636072957</v>
+        <v>0.6127667893276275</v>
       </c>
       <c r="AW4">
-        <v>0.4995888266569758</v>
+        <v>0.7441588559226093</v>
       </c>
       <c r="AX4">
-        <v>0.5018687254593766</v>
+        <v>0.7441588559226093</v>
       </c>
       <c r="AY4">
-        <v>0.5822536323365156</v>
+        <v>0.8357003536814336</v>
       </c>
       <c r="AZ4">
-        <v>0.5827774844286464</v>
+        <v>0.8357003536814336</v>
       </c>
       <c r="BA4">
-        <v>0.65025438546389</v>
+        <v>0.9037900230836416</v>
       </c>
       <c r="BB4">
-        <v>0.6561224205882606</v>
+        <v>0.9037900230836416</v>
       </c>
       <c r="BC4">
-        <v>0.692174067340433</v>
+        <v>0.9147849190145207</v>
       </c>
       <c r="BD4">
-        <v>0.7244860230798449</v>
+        <v>0.9189853811023828</v>
       </c>
       <c r="BE4">
-        <v>0.7248071132938297</v>
+        <v>0.9189853811023828</v>
       </c>
       <c r="BF4">
-        <v>0.7254483774964843</v>
+        <v>0.9189853811023828</v>
       </c>
       <c r="BG4">
-        <v>0.732581658717217</v>
+        <v>0.9189853811023828</v>
       </c>
       <c r="BH4">
-        <v>0.7749364045699889</v>
+        <v>0.9414320225648782</v>
       </c>
       <c r="BI4">
-        <v>0.7792230241165463</v>
+        <v>0.9414320225648782</v>
       </c>
       <c r="BJ4">
-        <v>0.780637874616909</v>
+        <v>0.9414320225648782</v>
       </c>
       <c r="BK4">
-        <v>0.8126193794988675</v>
+        <v>0.9450321071130786</v>
       </c>
       <c r="BL4">
-        <v>0.8149133477867557</v>
+        <v>0.9450321071130786</v>
       </c>
       <c r="BM4">
-        <v>0.819194875032046</v>
+        <v>0.9450321071130786</v>
       </c>
       <c r="BN4">
-        <v>0.8657035153867221</v>
+        <v>0.9750257253947173</v>
       </c>
       <c r="BO4">
-        <v>0.865763363661497</v>
+        <v>0.9750257253947173</v>
       </c>
       <c r="BP4">
-        <v>0.8677803163929865</v>
+        <v>0.9750257253947173</v>
       </c>
       <c r="BQ4">
-        <v>0.868458844671873</v>
+        <v>0.9750257253947173</v>
       </c>
       <c r="BR4">
-        <v>0.9014797842860734</v>
+        <v>0.9805143003284215</v>
       </c>
       <c r="BS4">
-        <v>0.9422048126876735</v>
+        <v>1</v>
       </c>
       <c r="BT4">
-        <v>0.9437780304717996</v>
+        <v>1</v>
       </c>
       <c r="BU4">
-        <v>0.9542628134706315</v>
+        <v>1</v>
       </c>
       <c r="BV4">
-        <v>0.9549524566139964</v>
+        <v>1</v>
       </c>
       <c r="BW4">
-        <v>0.9563311203494064</v>
+        <v>1</v>
       </c>
       <c r="BX4">
-        <v>0.9734832060348322</v>
+        <v>1</v>
       </c>
       <c r="BY4">
-        <v>0.9936282832406284</v>
+        <v>1</v>
       </c>
       <c r="BZ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:78">
@@ -4387,97 +4387,97 @@
         <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.2723463335971277</v>
+        <v>0.4029712915162664</v>
       </c>
       <c r="AV5">
-        <v>0.4056308855542993</v>
+        <v>0.5747119103161775</v>
       </c>
       <c r="AW5">
-        <v>0.5289107087577607</v>
+        <v>0.7298167566358057</v>
       </c>
       <c r="AX5">
-        <v>0.533424128857795</v>
+        <v>0.7298167566358057</v>
       </c>
       <c r="AY5">
-        <v>0.6204984504767739</v>
+        <v>0.824719422394506</v>
       </c>
       <c r="AZ5">
-        <v>0.6206972222445062</v>
+        <v>0.824719422394506</v>
       </c>
       <c r="BA5">
-        <v>0.7084046978456263</v>
+        <v>0.9206748908679208</v>
       </c>
       <c r="BB5">
-        <v>0.7238547963122629</v>
+        <v>0.9206748908679208</v>
       </c>
       <c r="BC5">
-        <v>0.7707252403932761</v>
+        <v>0.9487269126949982</v>
       </c>
       <c r="BD5">
-        <v>0.8225211336730792</v>
+        <v>0.9849689268998175</v>
       </c>
       <c r="BE5">
-        <v>0.8244129723647644</v>
+        <v>0.9849689268998175</v>
       </c>
       <c r="BF5">
-        <v>0.8244135286464901</v>
+        <v>0.9849689268998175</v>
       </c>
       <c r="BG5">
-        <v>0.8262506748278459</v>
+        <v>0.9849689268998175</v>
       </c>
       <c r="BH5">
-        <v>0.8510498455664927</v>
+        <v>0.9849689268998175</v>
       </c>
       <c r="BI5">
-        <v>0.8620382427919702</v>
+        <v>0.9849689268998175</v>
       </c>
       <c r="BJ5">
-        <v>0.8621864427775248</v>
+        <v>0.9849689268998175</v>
       </c>
       <c r="BK5">
-        <v>0.8790847162819692</v>
+        <v>0.9849689268998175</v>
       </c>
       <c r="BL5">
-        <v>0.8799030494055873</v>
+        <v>0.9849689268998175</v>
       </c>
       <c r="BM5">
-        <v>0.8814444142148209</v>
+        <v>0.9849689268998175</v>
       </c>
       <c r="BN5">
-        <v>0.9204840791551027</v>
+        <v>1</v>
       </c>
       <c r="BO5">
-        <v>0.9204983793303955</v>
+        <v>1</v>
       </c>
       <c r="BP5">
-        <v>0.9210649909414284</v>
+        <v>1</v>
       </c>
       <c r="BQ5">
-        <v>0.9212148345800955</v>
+        <v>1</v>
       </c>
       <c r="BR5">
-        <v>0.94630444129522</v>
+        <v>1</v>
       </c>
       <c r="BS5">
-        <v>0.9746780906996492</v>
+        <v>1</v>
       </c>
       <c r="BT5">
-        <v>0.9746786469813749</v>
+        <v>1</v>
       </c>
       <c r="BU5">
-        <v>0.9787977115714857</v>
+        <v>1</v>
       </c>
       <c r="BV5">
-        <v>0.9792422169650979</v>
+        <v>1</v>
       </c>
       <c r="BW5">
-        <v>0.9792722631087611</v>
+        <v>1</v>
       </c>
       <c r="BX5">
-        <v>0.9887924830486255</v>
+        <v>1</v>
       </c>
       <c r="BY5">
-        <v>0.9990489716076968</v>
+        <v>1</v>
       </c>
       <c r="BZ5">
         <v>1</v>
@@ -4494,97 +4494,97 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2936945486033523</v>
+        <v>0.4323511836818331</v>
       </c>
       <c r="E6">
-        <v>0.4639102690180652</v>
+        <v>0.6634449989512514</v>
       </c>
       <c r="F6">
-        <v>0.5193694763347568</v>
+        <v>0.7074978925250955</v>
       </c>
       <c r="G6">
-        <v>0.5205934936775305</v>
+        <v>0.7074978925250955</v>
       </c>
       <c r="H6">
-        <v>0.5805335601561371</v>
+        <v>0.7588541103722797</v>
       </c>
       <c r="I6">
-        <v>0.5805335601561371</v>
+        <v>0.7588541103722797</v>
       </c>
       <c r="J6">
-        <v>0.6150575732868199</v>
+        <v>0.7687848621110697</v>
       </c>
       <c r="K6">
-        <v>0.6938422084418084</v>
+        <v>0.8508557243739074</v>
       </c>
       <c r="L6">
-        <v>0.7833683313688363</v>
+        <v>0.9504340702559787</v>
       </c>
       <c r="M6">
-        <v>0.8069171654003359</v>
+        <v>0.9504340702559787</v>
       </c>
       <c r="N6">
-        <v>0.8069171654003359</v>
+        <v>0.9504340702559787</v>
       </c>
       <c r="O6">
-        <v>0.8069171654003359</v>
+        <v>0.9504340702559787</v>
       </c>
       <c r="P6">
-        <v>0.8182279999845548</v>
+        <v>0.9504340702559787</v>
       </c>
       <c r="Q6">
-        <v>0.8322246385306109</v>
+        <v>0.9504340702559787</v>
       </c>
       <c r="R6">
-        <v>0.8322246385306109</v>
+        <v>0.9504340702559787</v>
       </c>
       <c r="S6">
-        <v>0.8322246385306109</v>
+        <v>0.9504340702559787</v>
       </c>
       <c r="T6">
-        <v>0.8557580710909132</v>
+        <v>0.9504340702559787</v>
       </c>
       <c r="U6">
-        <v>0.8615265398412428</v>
+        <v>0.9504340702559787</v>
       </c>
       <c r="V6">
-        <v>0.8822830541260817</v>
+        <v>0.9504340702559787</v>
       </c>
       <c r="W6">
-        <v>0.9411247127359855</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>0.9411247127359855</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <v>0.9411247127359855</v>
+        <v>1</v>
       </c>
       <c r="Z6">
-        <v>0.9411247127359855</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>0.9572402382290186</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>0.977536232787228</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>0.977536232787228</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>0.977536232787228</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>0.977536232787228</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>0.977536232787228</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>0.9829842836651497</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>0.9986671750125236</v>
+        <v>1</v>
       </c>
       <c r="AI6">
         <v>1</v>
@@ -4730,229 +4730,229 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03682472244863324</v>
+        <v>0.01850039070341701</v>
       </c>
       <c r="E7">
-        <v>0.2292010162217474</v>
+        <v>0.2852666520721517</v>
       </c>
       <c r="F7">
-        <v>0.4257417974435966</v>
+        <v>0.5586795843393648</v>
       </c>
       <c r="G7">
-        <v>0.4715385431074666</v>
+        <v>0.5914996449515719</v>
       </c>
       <c r="H7">
-        <v>0.5292041311732035</v>
+        <v>0.6432628024904071</v>
       </c>
       <c r="I7">
-        <v>0.6235408874998495</v>
+        <v>0.7535544560070655</v>
       </c>
       <c r="J7">
-        <v>0.6447050669402075</v>
+        <v>0.7535544560070655</v>
       </c>
       <c r="K7">
-        <v>0.6447050669402075</v>
+        <v>0.7535544560070655</v>
       </c>
       <c r="L7">
-        <v>0.7123485828364697</v>
+        <v>0.8212427431938274</v>
       </c>
       <c r="M7">
-        <v>0.8186755931836652</v>
+        <v>0.9506712709224504</v>
       </c>
       <c r="N7">
-        <v>0.8231853233830517</v>
+        <v>0.9506712709224504</v>
       </c>
       <c r="O7">
-        <v>0.8660977701257542</v>
+        <v>0.9788878873082474</v>
       </c>
       <c r="P7">
-        <v>0.8660977701257542</v>
+        <v>0.9788878873082474</v>
       </c>
       <c r="Q7">
-        <v>0.8743284597084867</v>
+        <v>0.9788878873082474</v>
       </c>
       <c r="R7">
-        <v>0.8743284597084867</v>
+        <v>0.9788878873082474</v>
       </c>
       <c r="S7">
-        <v>0.8743284597084867</v>
+        <v>0.9788878873082474</v>
       </c>
       <c r="T7">
-        <v>0.9074086725630828</v>
+        <v>0.9914119067885215</v>
       </c>
       <c r="U7">
-        <v>0.9074086725630828</v>
+        <v>0.9914119067885215</v>
       </c>
       <c r="V7">
-        <v>0.9074086725630828</v>
+        <v>0.9914119067885215</v>
       </c>
       <c r="W7">
-        <v>0.9380228214593596</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="X7">
-        <v>0.9590974438298134</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Y7">
-        <v>0.9601113711633763</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Z7">
-        <v>0.9601113711633763</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AA7">
-        <v>0.9601113711633763</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AB7">
-        <v>0.9637331915103836</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC7">
-        <v>0.985873350999187</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD7">
-        <v>0.9920864822699501</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AL7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AM7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AN7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AO7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AR7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AS7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AT7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AU7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AV7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AW7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AX7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AY7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AZ7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BA7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BB7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BC7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BD7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BE7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BF7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BG7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BH7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BI7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BJ7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BK7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BL7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BM7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BN7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BO7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BP7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BQ7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BR7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BS7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BT7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BU7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BV7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BW7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BX7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BY7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BZ7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:78">
@@ -4966,85 +4966,85 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.116403129651383</v>
+        <v>0.1507761456218258</v>
       </c>
       <c r="E8">
-        <v>0.1399499353098977</v>
+        <v>0.1507761456218258</v>
       </c>
       <c r="F8">
-        <v>0.4728183920280388</v>
+        <v>0.6740343926223441</v>
       </c>
       <c r="G8">
-        <v>0.502476643942787</v>
+        <v>0.6755445343949031</v>
       </c>
       <c r="H8">
-        <v>0.6014944906953653</v>
+        <v>0.7964050034741633</v>
       </c>
       <c r="I8">
-        <v>0.6334438259551721</v>
+        <v>0.8018575204546373</v>
       </c>
       <c r="J8">
-        <v>0.6416024371788246</v>
+        <v>0.8018575204546373</v>
       </c>
       <c r="K8">
-        <v>0.6780492272706192</v>
+        <v>0.8150490201598501</v>
       </c>
       <c r="L8">
-        <v>0.7770166288933427</v>
+        <v>0.935822685924107</v>
       </c>
       <c r="M8">
-        <v>0.7951695699067656</v>
+        <v>0.935822685924107</v>
       </c>
       <c r="N8">
-        <v>0.8560233688501013</v>
+        <v>0.991012477312249</v>
       </c>
       <c r="O8">
-        <v>0.8857144288735663</v>
+        <v>0.9925790735454032</v>
       </c>
       <c r="P8">
-        <v>0.8857144288735663</v>
+        <v>0.9925790735454032</v>
       </c>
       <c r="Q8">
-        <v>0.8870382441837905</v>
+        <v>0.9925790735454032</v>
       </c>
       <c r="R8">
-        <v>0.8870382441837905</v>
+        <v>0.9925790735454032</v>
       </c>
       <c r="S8">
-        <v>0.8870382441837905</v>
+        <v>0.9925790735454032</v>
       </c>
       <c r="T8">
-        <v>0.8913062971521387</v>
+        <v>0.9925790735454032</v>
       </c>
       <c r="U8">
-        <v>0.8993389471898208</v>
+        <v>0.9925790735454032</v>
       </c>
       <c r="V8">
-        <v>0.9000340909718392</v>
+        <v>0.9925790735454032</v>
       </c>
       <c r="W8">
-        <v>0.9103647123605015</v>
+        <v>0.9925790735454032</v>
       </c>
       <c r="X8">
-        <v>0.9256729412275082</v>
+        <v>0.9925790735454032</v>
       </c>
       <c r="Y8">
-        <v>0.9256729412275082</v>
+        <v>0.9925790735454032</v>
       </c>
       <c r="Z8">
-        <v>0.9256729412275082</v>
+        <v>0.9925790735454032</v>
       </c>
       <c r="AA8">
-        <v>0.9260376199458881</v>
+        <v>0.9925790735454032</v>
       </c>
       <c r="AB8">
-        <v>0.9562915970001026</v>
+        <v>0.995114307672472</v>
       </c>
       <c r="AC8">
-        <v>0.987911526139628</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>0.9924927620571661</v>
+        <v>1</v>
       </c>
       <c r="AE8">
         <v>1</v>
@@ -5202,229 +5202,229 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.07797544668933859</v>
+        <v>0.08153183055788285</v>
       </c>
       <c r="E9">
-        <v>0.09077793167019062</v>
+        <v>0.08153183055788285</v>
       </c>
       <c r="F9">
-        <v>0.4789440850884433</v>
+        <v>0.6651552416996439</v>
       </c>
       <c r="G9">
-        <v>0.4941003570235335</v>
+        <v>0.6651552416996439</v>
       </c>
       <c r="H9">
-        <v>0.5727520200669678</v>
+        <v>0.7477816328961253</v>
       </c>
       <c r="I9">
-        <v>0.5859831193740396</v>
+        <v>0.7477816328961253</v>
       </c>
       <c r="J9">
-        <v>0.5951363681929357</v>
+        <v>0.7477816328961253</v>
       </c>
       <c r="K9">
-        <v>0.6688416504396223</v>
+        <v>0.8224015426006284</v>
       </c>
       <c r="L9">
-        <v>0.6967358928716481</v>
+        <v>0.8228692069613157</v>
       </c>
       <c r="M9">
-        <v>0.7207213451569143</v>
+        <v>0.8228692069613157</v>
       </c>
       <c r="N9">
-        <v>0.8174920355526664</v>
+        <v>0.9348240431583055</v>
       </c>
       <c r="O9">
-        <v>0.8174920355526664</v>
+        <v>0.9348240431583055</v>
       </c>
       <c r="P9">
-        <v>0.8174920355526664</v>
+        <v>0.9348240431583055</v>
       </c>
       <c r="Q9">
-        <v>0.8240427305649466</v>
+        <v>0.9348240431583055</v>
       </c>
       <c r="R9">
-        <v>0.8392177218729351</v>
+        <v>0.9348240431583055</v>
       </c>
       <c r="S9">
-        <v>0.8392177218729351</v>
+        <v>0.9348240431583055</v>
       </c>
       <c r="T9">
-        <v>0.8392177218729351</v>
+        <v>0.9348240431583055</v>
       </c>
       <c r="U9">
-        <v>0.8491411565827969</v>
+        <v>0.9348240431583055</v>
       </c>
       <c r="V9">
-        <v>0.8491411565827969</v>
+        <v>0.9348240431583055</v>
       </c>
       <c r="W9">
-        <v>0.8581485579402101</v>
+        <v>0.9348240431583055</v>
       </c>
       <c r="X9">
-        <v>0.8837277366865192</v>
+        <v>0.9348240431583055</v>
       </c>
       <c r="Y9">
-        <v>0.8837277366865192</v>
+        <v>0.9348240431583055</v>
       </c>
       <c r="Z9">
-        <v>0.8837277366865192</v>
+        <v>0.9348240431583055</v>
       </c>
       <c r="AA9">
-        <v>0.8872016299582201</v>
+        <v>0.9348240431583055</v>
       </c>
       <c r="AB9">
-        <v>0.9467608618317103</v>
+        <v>0.9865463848930995</v>
       </c>
       <c r="AC9">
-        <v>0.9826777865696819</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AD9">
-        <v>0.9874987143383553</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AE9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AF9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AK9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AL9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AM9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AN9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AO9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AP9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AR9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AS9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AT9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AU9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AV9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AW9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AX9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AY9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AZ9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BA9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BB9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BC9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BD9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BE9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BF9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BG9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BH9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BI9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BJ9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BK9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BL9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BM9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BN9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BO9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BP9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BQ9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BR9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BS9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BT9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BU9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BV9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BW9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BX9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BY9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BZ9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:78">
@@ -5441,226 +5441,226 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3425005477642192</v>
+        <v>0.5167037851539915</v>
       </c>
       <c r="F10">
-        <v>0.4810068395484618</v>
+        <v>0.6980200381320456</v>
       </c>
       <c r="G10">
-        <v>0.543597204541009</v>
+        <v>0.7545227015450335</v>
       </c>
       <c r="H10">
-        <v>0.5745275424301498</v>
+        <v>0.7589730250143075</v>
       </c>
       <c r="I10">
-        <v>0.6194074106953293</v>
+        <v>0.7863578107573237</v>
       </c>
       <c r="J10">
-        <v>0.6194074106953293</v>
+        <v>0.7863578107573237</v>
       </c>
       <c r="K10">
-        <v>0.6485833744681178</v>
+        <v>0.7879237627889307</v>
       </c>
       <c r="L10">
-        <v>0.7245258002002457</v>
+        <v>0.8663785869595764</v>
       </c>
       <c r="M10">
-        <v>0.7644198241896862</v>
+        <v>0.8855661320527493</v>
       </c>
       <c r="N10">
-        <v>0.8218298405234351</v>
+        <v>0.9335517696105785</v>
       </c>
       <c r="O10">
-        <v>0.8830320324223636</v>
+        <v>0.9877721337212394</v>
       </c>
       <c r="P10">
-        <v>0.8830320324223636</v>
+        <v>0.9877721337212394</v>
       </c>
       <c r="Q10">
-        <v>0.8830320324223636</v>
+        <v>0.9877721337212394</v>
       </c>
       <c r="R10">
-        <v>0.8890421653291909</v>
+        <v>0.9877721337212394</v>
       </c>
       <c r="S10">
-        <v>0.8890421653291909</v>
+        <v>0.9877721337212394</v>
       </c>
       <c r="T10">
-        <v>0.8890421653291909</v>
+        <v>0.9877721337212394</v>
       </c>
       <c r="U10">
-        <v>0.8940721263534167</v>
+        <v>0.9877721337212394</v>
       </c>
       <c r="V10">
-        <v>0.8955085013653934</v>
+        <v>0.9877721337212394</v>
       </c>
       <c r="W10">
-        <v>0.9031864988510135</v>
+        <v>0.9877721337212394</v>
       </c>
       <c r="X10">
-        <v>0.9283306498055015</v>
+        <v>0.9877721337212394</v>
       </c>
       <c r="Y10">
-        <v>0.9372950394756022</v>
+        <v>0.9877721337212394</v>
       </c>
       <c r="Z10">
-        <v>0.9372950394756022</v>
+        <v>0.9877721337212394</v>
       </c>
       <c r="AA10">
-        <v>0.9372950394756022</v>
+        <v>0.9877721337212394</v>
       </c>
       <c r="AB10">
-        <v>0.9459344705113967</v>
+        <v>0.9877721337212394</v>
       </c>
       <c r="AC10">
-        <v>0.9815953779851616</v>
+        <v>1</v>
       </c>
       <c r="AD10">
-        <v>0.9843538213906688</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AF10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AG10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AH10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AI10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AK10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AL10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AM10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AN10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AO10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AP10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AR10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AS10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AT10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AU10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AV10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AW10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AX10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AY10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AZ10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BA10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BB10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BC10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BD10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BE10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BF10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BG10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BH10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BI10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BJ10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BK10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BL10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BM10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BN10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BO10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BP10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BQ10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BR10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BS10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BT10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BU10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BV10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BW10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BX10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BY10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BZ10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:78">
@@ -5674,82 +5674,82 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2481020034616606</v>
+        <v>0.3617043619027629</v>
       </c>
       <c r="E11">
-        <v>0.3238197882463996</v>
+        <v>0.4394737200106655</v>
       </c>
       <c r="F11">
-        <v>0.3871800979650273</v>
+        <v>0.4968890123188025</v>
       </c>
       <c r="G11">
-        <v>0.4690946755235507</v>
+        <v>0.5848651422138489</v>
       </c>
       <c r="H11">
-        <v>0.5982516302718295</v>
+        <v>0.7506544539047948</v>
       </c>
       <c r="I11">
-        <v>0.5982516302718295</v>
+        <v>0.7506544539047948</v>
       </c>
       <c r="J11">
-        <v>0.5982516302718295</v>
+        <v>0.7506544539047948</v>
       </c>
       <c r="K11">
-        <v>0.6391724207970871</v>
+        <v>0.7711094895477587</v>
       </c>
       <c r="L11">
-        <v>0.7406927515339892</v>
+        <v>0.8913783643693991</v>
       </c>
       <c r="M11">
-        <v>0.7584195682373035</v>
+        <v>0.8913783643693991</v>
       </c>
       <c r="N11">
-        <v>0.8380894688355665</v>
+        <v>0.9756572743789971</v>
       </c>
       <c r="O11">
-        <v>0.8380894688355665</v>
+        <v>0.9756572743789971</v>
       </c>
       <c r="P11">
-        <v>0.8380894688355665</v>
+        <v>0.9756572743789971</v>
       </c>
       <c r="Q11">
-        <v>0.8436282485192187</v>
+        <v>0.9756572743789971</v>
       </c>
       <c r="R11">
-        <v>0.8436282485192187</v>
+        <v>0.9756572743789971</v>
       </c>
       <c r="S11">
-        <v>0.8558240509376057</v>
+        <v>0.9756572743789971</v>
       </c>
       <c r="T11">
-        <v>0.8689457815021041</v>
+        <v>0.9756572743789971</v>
       </c>
       <c r="U11">
-        <v>0.8691689942460303</v>
+        <v>0.9756572743789971</v>
       </c>
       <c r="V11">
-        <v>0.8761591646764569</v>
+        <v>0.9756572743789971</v>
       </c>
       <c r="W11">
-        <v>0.888584193278451</v>
+        <v>0.9756572743789971</v>
       </c>
       <c r="X11">
-        <v>0.8908180137552261</v>
+        <v>0.9756572743789971</v>
       </c>
       <c r="Y11">
-        <v>0.8908180137552261</v>
+        <v>0.9756572743789971</v>
       </c>
       <c r="Z11">
-        <v>0.8934861448408024</v>
+        <v>0.9756572743789971</v>
       </c>
       <c r="AA11">
-        <v>0.9064939326415701</v>
+        <v>0.9756572743789971</v>
       </c>
       <c r="AB11">
-        <v>0.9454160206442038</v>
+        <v>0.9928202359985864</v>
       </c>
       <c r="AC11">
-        <v>0.9671389671624768</v>
+        <v>0.9928202359985864</v>
       </c>
       <c r="AD11">
         <v>1</v>
@@ -5958,34 +5958,34 @@
         <v>78</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.5</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>7</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.6053977441239851</v>
       </c>
       <c r="F2">
-        <v>0.5727783434340648</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>700</v>
       </c>
       <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K2">
         <v>15</v>
-      </c>
-      <c r="I2">
-        <v>700</v>
-      </c>
-      <c r="J2" t="s">
-        <v>100</v>
-      </c>
-      <c r="K2" t="s">
-        <v>101</v>
       </c>
       <c r="L2" t="s">
         <v>102</v>
@@ -5999,34 +5999,34 @@
         <v>79</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.5</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>7</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.5556533964258232</v>
       </c>
       <c r="F3">
-        <v>0.5957175501269082</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>700</v>
       </c>
       <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K3">
         <v>15</v>
-      </c>
-      <c r="I3">
-        <v>700</v>
-      </c>
-      <c r="J3" t="s">
-        <v>100</v>
-      </c>
-      <c r="K3" t="s">
-        <v>101</v>
       </c>
       <c r="L3" t="s">
         <v>102</v>
@@ -6040,34 +6040,34 @@
         <v>80</v>
       </c>
       <c r="B4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>44</v>
       </c>
       <c r="D4">
-        <v>49</v>
+        <v>0.5</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.6127667893276275</v>
       </c>
       <c r="F4">
-        <v>0.5018687254593766</v>
+        <v>47</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>700</v>
       </c>
       <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K4">
         <v>15</v>
-      </c>
-      <c r="I4">
-        <v>700</v>
-      </c>
-      <c r="J4" t="s">
-        <v>100</v>
-      </c>
-      <c r="K4" t="s">
-        <v>101</v>
       </c>
       <c r="L4" t="s">
         <v>102</v>
@@ -6081,34 +6081,34 @@
         <v>81</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>44</v>
       </c>
       <c r="D5">
-        <v>48</v>
+        <v>0.5</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.5747119103161775</v>
       </c>
       <c r="F5">
-        <v>0.5289107087577607</v>
+        <v>47</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>700</v>
       </c>
       <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>100</v>
+      </c>
+      <c r="J5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K5">
         <v>15</v>
-      </c>
-      <c r="I5">
-        <v>700</v>
-      </c>
-      <c r="J5" t="s">
-        <v>100</v>
-      </c>
-      <c r="K5" t="s">
-        <v>101</v>
       </c>
       <c r="L5" t="s">
         <v>102</v>
@@ -6122,34 +6122,34 @@
         <v>82</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.5</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.6634449989512514</v>
       </c>
       <c r="F6">
-        <v>0.5193694763347568</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>700</v>
       </c>
       <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" t="s">
+        <v>101</v>
+      </c>
+      <c r="K6">
         <v>15</v>
-      </c>
-      <c r="I6">
-        <v>700</v>
-      </c>
-      <c r="J6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K6" t="s">
-        <v>101</v>
       </c>
       <c r="L6" t="s">
         <v>102</v>
@@ -6163,34 +6163,34 @@
         <v>83</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>0.5</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.5586795843393648</v>
       </c>
       <c r="F7">
-        <v>0.5292041311732035</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>700</v>
       </c>
       <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K7">
         <v>15</v>
-      </c>
-      <c r="I7">
-        <v>700</v>
-      </c>
-      <c r="J7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K7" t="s">
-        <v>101</v>
       </c>
       <c r="L7" t="s">
         <v>102</v>
@@ -6204,34 +6204,34 @@
         <v>84</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.5</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.6740343926223441</v>
       </c>
       <c r="F8">
-        <v>0.502476643942787</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>700</v>
       </c>
       <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8">
         <v>15</v>
-      </c>
-      <c r="I8">
-        <v>700</v>
-      </c>
-      <c r="J8" t="s">
-        <v>100</v>
-      </c>
-      <c r="K8" t="s">
-        <v>101</v>
       </c>
       <c r="L8" t="s">
         <v>102</v>
@@ -6245,34 +6245,34 @@
         <v>85</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.5</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.6651552416996439</v>
       </c>
       <c r="F9">
-        <v>0.5727520200669678</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>700</v>
       </c>
       <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9">
         <v>15</v>
-      </c>
-      <c r="I9">
-        <v>700</v>
-      </c>
-      <c r="J9" t="s">
-        <v>100</v>
-      </c>
-      <c r="K9" t="s">
-        <v>101</v>
       </c>
       <c r="L9" t="s">
         <v>102</v>
@@ -6286,34 +6286,34 @@
         <v>86</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.5167037851539915</v>
       </c>
       <c r="F10">
-        <v>0.543597204541009</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>700</v>
       </c>
       <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10">
         <v>15</v>
-      </c>
-      <c r="I10">
-        <v>700</v>
-      </c>
-      <c r="J10" t="s">
-        <v>100</v>
-      </c>
-      <c r="K10" t="s">
-        <v>101</v>
       </c>
       <c r="L10" t="s">
         <v>102</v>
@@ -6327,34 +6327,34 @@
         <v>87</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.5</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>7</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.5848651422138489</v>
       </c>
       <c r="F11">
-        <v>0.5982516302718295</v>
+        <v>6</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>700</v>
       </c>
       <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11">
         <v>15</v>
-      </c>
-      <c r="I11">
-        <v>700</v>
-      </c>
-      <c r="J11" t="s">
-        <v>100</v>
-      </c>
-      <c r="K11" t="s">
-        <v>101</v>
       </c>
       <c r="L11" t="s">
         <v>102</v>
@@ -6422,34 +6422,34 @@
         <v>78</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.7</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>11</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.7503419383002736</v>
       </c>
       <c r="F2">
-        <v>0.8032292012957567</v>
+        <v>7</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>700</v>
       </c>
       <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K2">
         <v>15</v>
-      </c>
-      <c r="I2">
-        <v>700</v>
-      </c>
-      <c r="J2" t="s">
-        <v>100</v>
-      </c>
-      <c r="K2" t="s">
-        <v>101</v>
       </c>
       <c r="L2" t="s">
         <v>102</v>
@@ -6463,34 +6463,34 @@
         <v>79</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.7</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>11</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.7234531005808598</v>
       </c>
       <c r="F3">
-        <v>0.8001942728965962</v>
+        <v>7</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>700</v>
       </c>
       <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K3">
         <v>15</v>
-      </c>
-      <c r="I3">
-        <v>700</v>
-      </c>
-      <c r="J3" t="s">
-        <v>100</v>
-      </c>
-      <c r="K3" t="s">
-        <v>101</v>
       </c>
       <c r="L3" t="s">
         <v>102</v>
@@ -6504,34 +6504,34 @@
         <v>80</v>
       </c>
       <c r="B4">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>44</v>
       </c>
       <c r="D4">
-        <v>55</v>
+        <v>0.7</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.7441588559226093</v>
       </c>
       <c r="F4">
-        <v>0.7244860230798449</v>
+        <v>48</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>700</v>
       </c>
       <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K4">
         <v>15</v>
-      </c>
-      <c r="I4">
-        <v>700</v>
-      </c>
-      <c r="J4" t="s">
-        <v>100</v>
-      </c>
-      <c r="K4" t="s">
-        <v>101</v>
       </c>
       <c r="L4" t="s">
         <v>102</v>
@@ -6545,34 +6545,34 @@
         <v>81</v>
       </c>
       <c r="B5">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>44</v>
       </c>
       <c r="D5">
-        <v>52</v>
+        <v>0.7</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.7298167566358057</v>
       </c>
       <c r="F5">
-        <v>0.7084046978456263</v>
+        <v>48</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>700</v>
       </c>
       <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>100</v>
+      </c>
+      <c r="J5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K5">
         <v>15</v>
-      </c>
-      <c r="I5">
-        <v>700</v>
-      </c>
-      <c r="J5" t="s">
-        <v>100</v>
-      </c>
-      <c r="K5" t="s">
-        <v>101</v>
       </c>
       <c r="L5" t="s">
         <v>102</v>
@@ -6586,34 +6586,34 @@
         <v>82</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.7</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>11</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.7074978925250955</v>
       </c>
       <c r="F6">
-        <v>0.7833683313688363</v>
+        <v>5</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>700</v>
       </c>
       <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" t="s">
+        <v>101</v>
+      </c>
+      <c r="K6">
         <v>15</v>
-      </c>
-      <c r="I6">
-        <v>700</v>
-      </c>
-      <c r="J6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K6" t="s">
-        <v>101</v>
       </c>
       <c r="L6" t="s">
         <v>102</v>
@@ -6627,34 +6627,34 @@
         <v>83</v>
       </c>
       <c r="B7">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>0.7</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.7535544560070655</v>
       </c>
       <c r="F7">
-        <v>0.7123485828364697</v>
+        <v>8</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>700</v>
       </c>
       <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K7">
         <v>15</v>
-      </c>
-      <c r="I7">
-        <v>700</v>
-      </c>
-      <c r="J7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K7" t="s">
-        <v>101</v>
       </c>
       <c r="L7" t="s">
         <v>102</v>
@@ -6668,34 +6668,34 @@
         <v>84</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.7</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>11</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.7964050034741633</v>
       </c>
       <c r="F8">
-        <v>0.7770166288933427</v>
+        <v>7</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>700</v>
       </c>
       <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8">
         <v>15</v>
-      </c>
-      <c r="I8">
-        <v>700</v>
-      </c>
-      <c r="J8" t="s">
-        <v>100</v>
-      </c>
-      <c r="K8" t="s">
-        <v>101</v>
       </c>
       <c r="L8" t="s">
         <v>102</v>
@@ -6709,34 +6709,34 @@
         <v>85</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.7</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>12</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.7477816328961253</v>
       </c>
       <c r="F9">
-        <v>0.7207213451569143</v>
+        <v>7</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>700</v>
       </c>
       <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9">
         <v>15</v>
-      </c>
-      <c r="I9">
-        <v>700</v>
-      </c>
-      <c r="J9" t="s">
-        <v>100</v>
-      </c>
-      <c r="K9" t="s">
-        <v>101</v>
       </c>
       <c r="L9" t="s">
         <v>102</v>
@@ -6750,34 +6750,34 @@
         <v>86</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>11</v>
+        <v>0.7</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.7545227015450335</v>
       </c>
       <c r="F10">
-        <v>0.7245258002002457</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>9</v>
+        <v>700</v>
       </c>
       <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10">
         <v>15</v>
-      </c>
-      <c r="I10">
-        <v>700</v>
-      </c>
-      <c r="J10" t="s">
-        <v>100</v>
-      </c>
-      <c r="K10" t="s">
-        <v>101</v>
       </c>
       <c r="L10" t="s">
         <v>102</v>
@@ -6791,34 +6791,34 @@
         <v>87</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.7</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>11</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.7506544539047948</v>
       </c>
       <c r="F11">
-        <v>0.7406927515339892</v>
+        <v>7</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>700</v>
       </c>
       <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11">
         <v>15</v>
-      </c>
-      <c r="I11">
-        <v>700</v>
-      </c>
-      <c r="J11" t="s">
-        <v>100</v>
-      </c>
-      <c r="K11" t="s">
-        <v>101</v>
       </c>
       <c r="L11" t="s">
         <v>102</v>
@@ -6886,34 +6886,34 @@
         <v>78</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.8</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="E2">
+        <v>0.9648912807268668</v>
+      </c>
+      <c r="F2">
         <v>11</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.8032292012957567</v>
-      </c>
       <c r="G2">
+        <v>700</v>
+      </c>
+      <c r="H2">
         <v>10</v>
       </c>
-      <c r="H2">
+      <c r="I2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K2">
         <v>15</v>
-      </c>
-      <c r="I2">
-        <v>700</v>
-      </c>
-      <c r="J2" t="s">
-        <v>100</v>
-      </c>
-      <c r="K2" t="s">
-        <v>101</v>
       </c>
       <c r="L2" t="s">
         <v>102</v>
@@ -6927,34 +6927,34 @@
         <v>79</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.8</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
+        <v>0.9157170376323186</v>
+      </c>
+      <c r="F3">
         <v>11</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.8001942728965962</v>
-      </c>
       <c r="G3">
+        <v>700</v>
+      </c>
+      <c r="H3">
         <v>10</v>
       </c>
-      <c r="H3">
+      <c r="I3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K3">
         <v>15</v>
-      </c>
-      <c r="I3">
-        <v>700</v>
-      </c>
-      <c r="J3" t="s">
-        <v>100</v>
-      </c>
-      <c r="K3" t="s">
-        <v>101</v>
       </c>
       <c r="L3" t="s">
         <v>102</v>
@@ -6968,34 +6968,34 @@
         <v>80</v>
       </c>
       <c r="B4">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>44</v>
       </c>
       <c r="D4">
-        <v>62</v>
+        <v>0.8</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.8357003536814336</v>
       </c>
       <c r="F4">
-        <v>0.8126193794988675</v>
+        <v>50</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>700</v>
       </c>
       <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K4">
         <v>15</v>
-      </c>
-      <c r="I4">
-        <v>700</v>
-      </c>
-      <c r="J4" t="s">
-        <v>100</v>
-      </c>
-      <c r="K4" t="s">
-        <v>101</v>
       </c>
       <c r="L4" t="s">
         <v>102</v>
@@ -7009,34 +7009,34 @@
         <v>81</v>
       </c>
       <c r="B5">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>44</v>
       </c>
       <c r="D5">
-        <v>55</v>
+        <v>0.8</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.824719422394506</v>
       </c>
       <c r="F5">
-        <v>0.8225211336730792</v>
+        <v>50</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>700</v>
       </c>
       <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>100</v>
+      </c>
+      <c r="J5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K5">
         <v>15</v>
-      </c>
-      <c r="I5">
-        <v>700</v>
-      </c>
-      <c r="J5" t="s">
-        <v>100</v>
-      </c>
-      <c r="K5" t="s">
-        <v>101</v>
       </c>
       <c r="L5" t="s">
         <v>102</v>
@@ -7050,34 +7050,34 @@
         <v>82</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.8</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>12</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.8508557243739074</v>
       </c>
       <c r="F6">
-        <v>0.8069171654003359</v>
+        <v>10</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>700</v>
       </c>
       <c r="H6">
+        <v>9</v>
+      </c>
+      <c r="I6" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" t="s">
+        <v>101</v>
+      </c>
+      <c r="K6">
         <v>15</v>
-      </c>
-      <c r="I6">
-        <v>700</v>
-      </c>
-      <c r="J6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K6" t="s">
-        <v>101</v>
       </c>
       <c r="L6" t="s">
         <v>102</v>
@@ -7091,34 +7091,34 @@
         <v>83</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>0.8</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.8212427431938274</v>
       </c>
       <c r="F7">
-        <v>0.8186755931836652</v>
+        <v>11</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>700</v>
       </c>
       <c r="H7">
+        <v>9</v>
+      </c>
+      <c r="I7" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K7">
         <v>15</v>
-      </c>
-      <c r="I7">
-        <v>700</v>
-      </c>
-      <c r="J7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K7" t="s">
-        <v>101</v>
       </c>
       <c r="L7" t="s">
         <v>102</v>
@@ -7132,34 +7132,34 @@
         <v>84</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.8</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>13</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.8018575204546373</v>
       </c>
       <c r="F8">
-        <v>0.8560233688501013</v>
+        <v>8</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>700</v>
       </c>
       <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8">
         <v>15</v>
-      </c>
-      <c r="I8">
-        <v>700</v>
-      </c>
-      <c r="J8" t="s">
-        <v>100</v>
-      </c>
-      <c r="K8" t="s">
-        <v>101</v>
       </c>
       <c r="L8" t="s">
         <v>102</v>
@@ -7173,34 +7173,34 @@
         <v>85</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.8</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>13</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.8224015426006284</v>
       </c>
       <c r="F9">
-        <v>0.8174920355526664</v>
+        <v>10</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>700</v>
       </c>
       <c r="H9">
+        <v>9</v>
+      </c>
+      <c r="I9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9">
         <v>15</v>
-      </c>
-      <c r="I9">
-        <v>700</v>
-      </c>
-      <c r="J9" t="s">
-        <v>100</v>
-      </c>
-      <c r="K9" t="s">
-        <v>101</v>
       </c>
       <c r="L9" t="s">
         <v>102</v>
@@ -7214,34 +7214,34 @@
         <v>86</v>
       </c>
       <c r="B10">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>0.8</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.8663785869595764</v>
       </c>
       <c r="F10">
-        <v>0.8218298405234351</v>
+        <v>11</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>700</v>
       </c>
       <c r="H10">
+        <v>9</v>
+      </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10">
         <v>15</v>
-      </c>
-      <c r="I10">
-        <v>700</v>
-      </c>
-      <c r="J10" t="s">
-        <v>100</v>
-      </c>
-      <c r="K10" t="s">
-        <v>101</v>
       </c>
       <c r="L10" t="s">
         <v>102</v>
@@ -7255,34 +7255,34 @@
         <v>87</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.8</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>13</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.8913783643693991</v>
       </c>
       <c r="F11">
-        <v>0.8380894688355665</v>
+        <v>11</v>
       </c>
       <c r="G11">
-        <v>12</v>
+        <v>700</v>
       </c>
       <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11">
         <v>15</v>
-      </c>
-      <c r="I11">
-        <v>700</v>
-      </c>
-      <c r="J11" t="s">
-        <v>100</v>
-      </c>
-      <c r="K11" t="s">
-        <v>101</v>
       </c>
       <c r="L11" t="s">
         <v>102</v>
@@ -7350,34 +7350,34 @@
         <v>78</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.9</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>21</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.9648912807268668</v>
       </c>
       <c r="F2">
-        <v>0.9061867180719301</v>
+        <v>11</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>700</v>
       </c>
       <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K2">
         <v>15</v>
-      </c>
-      <c r="I2">
-        <v>700</v>
-      </c>
-      <c r="J2" t="s">
-        <v>100</v>
-      </c>
-      <c r="K2" t="s">
-        <v>101</v>
       </c>
       <c r="L2" t="s">
         <v>102</v>
@@ -7391,34 +7391,34 @@
         <v>79</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.9</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>22</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.9157170376323186</v>
       </c>
       <c r="F3">
-        <v>0.9403956842221752</v>
+        <v>11</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>700</v>
       </c>
       <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K3">
         <v>15</v>
-      </c>
-      <c r="I3">
-        <v>700</v>
-      </c>
-      <c r="J3" t="s">
-        <v>100</v>
-      </c>
-      <c r="K3" t="s">
-        <v>101</v>
       </c>
       <c r="L3" t="s">
         <v>102</v>
@@ -7432,34 +7432,34 @@
         <v>80</v>
       </c>
       <c r="B4">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>44</v>
       </c>
       <c r="D4">
-        <v>69</v>
+        <v>0.9</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.9037900230836416</v>
       </c>
       <c r="F4">
-        <v>0.9014797842860734</v>
+        <v>52</v>
       </c>
       <c r="G4">
-        <v>25</v>
+        <v>700</v>
       </c>
       <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K4">
         <v>15</v>
-      </c>
-      <c r="I4">
-        <v>700</v>
-      </c>
-      <c r="J4" t="s">
-        <v>100</v>
-      </c>
-      <c r="K4" t="s">
-        <v>101</v>
       </c>
       <c r="L4" t="s">
         <v>102</v>
@@ -7473,34 +7473,34 @@
         <v>81</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>44</v>
       </c>
       <c r="D5">
-        <v>65</v>
+        <v>0.9</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.9206748908679208</v>
       </c>
       <c r="F5">
-        <v>0.9204840791551027</v>
+        <v>52</v>
       </c>
       <c r="G5">
-        <v>21</v>
+        <v>700</v>
       </c>
       <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>100</v>
+      </c>
+      <c r="J5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K5">
         <v>15</v>
-      </c>
-      <c r="I5">
-        <v>700</v>
-      </c>
-      <c r="J5" t="s">
-        <v>100</v>
-      </c>
-      <c r="K5" t="s">
-        <v>101</v>
       </c>
       <c r="L5" t="s">
         <v>102</v>
@@ -7514,34 +7514,34 @@
         <v>82</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.9</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.9504340702559787</v>
       </c>
       <c r="F6">
-        <v>0.9411247127359855</v>
+        <v>11</v>
       </c>
       <c r="G6">
-        <v>21</v>
+        <v>700</v>
       </c>
       <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" t="s">
+        <v>101</v>
+      </c>
+      <c r="K6">
         <v>15</v>
-      </c>
-      <c r="I6">
-        <v>700</v>
-      </c>
-      <c r="J6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K6" t="s">
-        <v>101</v>
       </c>
       <c r="L6" t="s">
         <v>102</v>
@@ -7555,34 +7555,34 @@
         <v>83</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>0.9</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.9506712709224504</v>
       </c>
       <c r="F7">
-        <v>0.9074086725630828</v>
+        <v>12</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>700</v>
       </c>
       <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K7">
         <v>15</v>
-      </c>
-      <c r="I7">
-        <v>700</v>
-      </c>
-      <c r="J7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K7" t="s">
-        <v>101</v>
       </c>
       <c r="L7" t="s">
         <v>102</v>
@@ -7596,34 +7596,34 @@
         <v>84</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.9</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.935822685924107</v>
       </c>
       <c r="F8">
-        <v>0.9000340909718392</v>
+        <v>11</v>
       </c>
       <c r="G8">
-        <v>20</v>
+        <v>700</v>
       </c>
       <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8">
         <v>15</v>
-      </c>
-      <c r="I8">
-        <v>700</v>
-      </c>
-      <c r="J8" t="s">
-        <v>100</v>
-      </c>
-      <c r="K8" t="s">
-        <v>101</v>
       </c>
       <c r="L8" t="s">
         <v>102</v>
@@ -7637,34 +7637,34 @@
         <v>85</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.9</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>27</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.9348240431583055</v>
       </c>
       <c r="F9">
-        <v>0.9467608618317103</v>
+        <v>13</v>
       </c>
       <c r="G9">
-        <v>26</v>
+        <v>700</v>
       </c>
       <c r="H9">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9">
         <v>15</v>
-      </c>
-      <c r="I9">
-        <v>700</v>
-      </c>
-      <c r="J9" t="s">
-        <v>100</v>
-      </c>
-      <c r="K9" t="s">
-        <v>101</v>
       </c>
       <c r="L9" t="s">
         <v>102</v>
@@ -7678,34 +7678,34 @@
         <v>86</v>
       </c>
       <c r="B10">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>0.9</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.9335517696105785</v>
       </c>
       <c r="F10">
-        <v>0.9031864988510135</v>
+        <v>13</v>
       </c>
       <c r="G10">
-        <v>20</v>
+        <v>700</v>
       </c>
       <c r="H10">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10">
         <v>15</v>
-      </c>
-      <c r="I10">
-        <v>700</v>
-      </c>
-      <c r="J10" t="s">
-        <v>100</v>
-      </c>
-      <c r="K10" t="s">
-        <v>101</v>
       </c>
       <c r="L10" t="s">
         <v>102</v>
@@ -7719,34 +7719,34 @@
         <v>87</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.9</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.9756572743789971</v>
       </c>
       <c r="F11">
-        <v>0.9064939326415701</v>
+        <v>13</v>
       </c>
       <c r="G11">
-        <v>25</v>
+        <v>700</v>
       </c>
       <c r="H11">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11">
         <v>15</v>
-      </c>
-      <c r="I11">
-        <v>700</v>
-      </c>
-      <c r="J11" t="s">
-        <v>100</v>
-      </c>
-      <c r="K11" t="s">
-        <v>101</v>
       </c>
       <c r="L11" t="s">
         <v>102</v>
